--- a/data/trans_orig/Q4502_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q4502_R-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>37462</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27450</v>
+        <v>27649</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50881</v>
+        <v>48619</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1376710184785578</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1008762658488604</v>
+        <v>0.1016081958445194</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1869833199859959</v>
+        <v>0.1786699124354912</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -764,19 +764,19 @@
         <v>40050</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28863</v>
+        <v>29382</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54017</v>
+        <v>53567</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1542716441270094</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1111810742001832</v>
+        <v>0.1131788187105136</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2080733262468557</v>
+        <v>0.206338699544961</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>77</v>
@@ -785,19 +785,19 @@
         <v>77512</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>62303</v>
+        <v>62658</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93328</v>
+        <v>94643</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1457760952034828</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1171722948146417</v>
+        <v>0.1178397578837224</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1755201491873237</v>
+        <v>0.177993927658587</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>103331</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>87733</v>
+        <v>88240</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>120548</v>
+        <v>119397</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3797326958350901</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3224132446133631</v>
+        <v>0.3242760752681291</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4430068259132985</v>
+        <v>0.4387771464094279</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>94</v>
@@ -835,19 +835,19 @@
         <v>103422</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>86577</v>
+        <v>88069</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>120274</v>
+        <v>120086</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3983783201556669</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3334907079215417</v>
+        <v>0.339241490870526</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.463290736534771</v>
+        <v>0.4625672937056186</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>194</v>
@@ -856,19 +856,19 @@
         <v>206753</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>184545</v>
+        <v>184680</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>232746</v>
+        <v>232103</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3888362211420714</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.347071080981299</v>
+        <v>0.347324889688621</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4377216687407725</v>
+        <v>0.436511229991025</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>94673</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>79847</v>
+        <v>80534</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>110099</v>
+        <v>112171</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3479175511397596</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2934335321117246</v>
+        <v>0.295956236602982</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4046057311649349</v>
+        <v>0.4122202279345335</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>61</v>
@@ -906,19 +906,19 @@
         <v>65410</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>51724</v>
+        <v>52435</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>80842</v>
+        <v>80785</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2519564338019027</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1992383981288776</v>
+        <v>0.2019768786885871</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3114032006980675</v>
+        <v>0.3111829875787297</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>155</v>
@@ -927,19 +927,19 @@
         <v>160083</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>139317</v>
+        <v>138279</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>182211</v>
+        <v>181333</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3010655688648986</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2620102691650686</v>
+        <v>0.2600579394188846</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3426818018496404</v>
+        <v>0.341029727663788</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>18516</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11647</v>
+        <v>11336</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31006</v>
+        <v>28675</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.068043452591175</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04280235787749292</v>
+        <v>0.0416579459783208</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1139457224963303</v>
+        <v>0.1053801162851683</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -977,19 +977,19 @@
         <v>24893</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15779</v>
+        <v>16354</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36701</v>
+        <v>35984</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09588644896342328</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06077927372178555</v>
+        <v>0.06299525514442299</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1413731372338997</v>
+        <v>0.1386110492656924</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -998,19 +998,19 @@
         <v>43408</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31017</v>
+        <v>30967</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57046</v>
+        <v>57127</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08163749576929635</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0583330918500525</v>
+        <v>0.0582389860993317</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1072861357024016</v>
+        <v>0.1074367927596624</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>18132</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10753</v>
+        <v>11209</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27053</v>
+        <v>27892</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06663528195541757</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03951653454966339</v>
+        <v>0.04119068196366479</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0994161373933803</v>
+        <v>0.102502448854712</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -1048,19 +1048,19 @@
         <v>25833</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17880</v>
+        <v>17505</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>38035</v>
+        <v>36917</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09950715295199765</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06887479529036213</v>
+        <v>0.06742926049328377</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1465091276162407</v>
+        <v>0.1422049793731519</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>47</v>
@@ -1069,19 +1069,19 @@
         <v>43965</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>32078</v>
+        <v>32610</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>57788</v>
+        <v>58740</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08268461902025091</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06032843487859028</v>
+        <v>0.06132912432710824</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1086817509657403</v>
+        <v>0.1104706465263307</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>102518</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>85358</v>
+        <v>84795</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>123966</v>
+        <v>122726</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2083888050204333</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1735068481121377</v>
+        <v>0.1723616293932289</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2519853883827139</v>
+        <v>0.249464930307906</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>93</v>
@@ -1194,19 +1194,19 @@
         <v>96781</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>78951</v>
+        <v>80181</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>115623</v>
+        <v>115895</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1920457863056304</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1566644524630429</v>
+        <v>0.1591050428674626</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2294341638610325</v>
+        <v>0.2299746495715689</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>184</v>
@@ -1215,19 +1215,19 @@
         <v>199300</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>172491</v>
+        <v>170519</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>223895</v>
+        <v>225513</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2001189013219914</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1732004628285622</v>
+        <v>0.1712194950355996</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2248157370876079</v>
+        <v>0.2264397981897409</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>77224</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>62044</v>
+        <v>61731</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>94409</v>
+        <v>94402</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1569738217557916</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1261163753171333</v>
+        <v>0.1254806074001048</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1919054940623204</v>
+        <v>0.1918898823358263</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>51</v>
@@ -1265,19 +1265,19 @@
         <v>52418</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>40910</v>
+        <v>38977</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>67351</v>
+        <v>66151</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1040149178965741</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08117911831835604</v>
+        <v>0.07734330654170536</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1336472087112716</v>
+        <v>0.1312651374706458</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>124</v>
@@ -1286,19 +1286,19 @@
         <v>129643</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>109433</v>
+        <v>109519</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>151668</v>
+        <v>152082</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1301755268670954</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1098831612115019</v>
+        <v>0.1099688633651805</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1522912874548888</v>
+        <v>0.1527073534208434</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>115727</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>97686</v>
+        <v>95444</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>135632</v>
+        <v>135340</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2352372966456143</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1985661833252761</v>
+        <v>0.1940079434346595</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2756982727162764</v>
+        <v>0.2751048111433833</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>76</v>
@@ -1336,19 +1336,19 @@
         <v>76485</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>62029</v>
+        <v>61488</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>94097</v>
+        <v>92777</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1517712045794905</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1230863484448774</v>
+        <v>0.1220126263631148</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.186718834316427</v>
+        <v>0.1841006979348445</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>186</v>
@@ -1357,19 +1357,19 @@
         <v>192212</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>166627</v>
+        <v>168437</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>218577</v>
+        <v>217836</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1930017368926956</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1673123270710148</v>
+        <v>0.1691289645585324</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2194753648476077</v>
+        <v>0.2187312021851155</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>36433</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26386</v>
+        <v>25919</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50268</v>
+        <v>48705</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07405773151030005</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05363413252215643</v>
+        <v>0.05268558607082642</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1021804180661016</v>
+        <v>0.09900284775357862</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -1407,19 +1407,19 @@
         <v>62371</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48833</v>
+        <v>49239</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>78667</v>
+        <v>77383</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1237642001226949</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09690047309540351</v>
+        <v>0.09770584682786315</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1561015723902404</v>
+        <v>0.1535536392048379</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>98</v>
@@ -1428,19 +1428,19 @@
         <v>98804</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79695</v>
+        <v>81345</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>117584</v>
+        <v>118533</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09921022725099195</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08002252916726721</v>
+        <v>0.08167987699686589</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1180673069466448</v>
+        <v>0.1190204447756944</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>160054</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>139854</v>
+        <v>138878</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>183370</v>
+        <v>184408</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3253423450678608</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2842803154659083</v>
+        <v>0.2822967868061116</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3727354784287919</v>
+        <v>0.3748456206102527</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>216</v>
@@ -1478,19 +1478,19 @@
         <v>215894</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>194074</v>
+        <v>193367</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>236449</v>
+        <v>238336</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4284038910956102</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3851072528745924</v>
+        <v>0.3837033646514246</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4691925371907396</v>
+        <v>0.4729370853939297</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>371</v>
@@ -1499,19 +1499,19 @@
         <v>375948</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>345326</v>
+        <v>346187</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>407033</v>
+        <v>408356</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3774936076672256</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3467458790441275</v>
+        <v>0.3476096193902261</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4087066702502806</v>
+        <v>0.4100342489909806</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>47647</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35034</v>
+        <v>36078</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63187</v>
+        <v>62638</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1494342206309489</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1098786042067837</v>
+        <v>0.1131532195516931</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1981743938116037</v>
+        <v>0.1964532684158494</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -1624,19 +1624,19 @@
         <v>43048</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32224</v>
+        <v>32214</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56342</v>
+        <v>55804</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1283422824459158</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09607404101786453</v>
+        <v>0.09604251163202547</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1679797722382738</v>
+        <v>0.1663733485802883</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>88</v>
@@ -1645,19 +1645,19 @@
         <v>90694</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>75020</v>
+        <v>73429</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>109777</v>
+        <v>108986</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1386212230870832</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1146637504599728</v>
+        <v>0.1122323579713673</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1677886911172883</v>
+        <v>0.1665796269980211</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>57394</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>44791</v>
+        <v>43540</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>72242</v>
+        <v>71858</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.180006233596743</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1404785633494319</v>
+        <v>0.1365537658134511</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2265719448940415</v>
+        <v>0.2253681103479623</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -1695,19 +1695,19 @@
         <v>32836</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23423</v>
+        <v>24246</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46099</v>
+        <v>44641</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09789861619540656</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06983398852263788</v>
+        <v>0.07228820105118558</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1374402504549291</v>
+        <v>0.1330916174352686</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>90</v>
@@ -1716,19 +1716,19 @@
         <v>90231</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>73578</v>
+        <v>75015</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>109416</v>
+        <v>110500</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1379129248877631</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1124609625862456</v>
+        <v>0.1146563686906346</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1672374271219849</v>
+        <v>0.1688931067565378</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>150369</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>134015</v>
+        <v>133723</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>169304</v>
+        <v>169273</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4716033581313266</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4203124628661513</v>
+        <v>0.4193974462402297</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5309889174826824</v>
+        <v>0.5308915693406379</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>162</v>
@@ -1766,19 +1766,19 @@
         <v>164418</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>146550</v>
+        <v>146309</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>183236</v>
+        <v>183877</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4901967076237637</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4369263934342729</v>
+        <v>0.4362068975841701</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5463013691448743</v>
+        <v>0.5482124555375045</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>309</v>
@@ -1787,19 +1787,19 @@
         <v>314787</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>290894</v>
+        <v>289638</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>339343</v>
+        <v>341703</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4811354286613183</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4446163901436232</v>
+        <v>0.442697348322182</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5186681779478475</v>
+        <v>0.5222756722734948</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>9277</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3848</v>
+        <v>4466</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17246</v>
+        <v>19918</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02909664694547999</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01206916100141493</v>
+        <v>0.01400546411615078</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05409000275109227</v>
+        <v>0.06246978836003075</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -1837,19 +1837,19 @@
         <v>16069</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9938</v>
+        <v>9862</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25081</v>
+        <v>26847</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04790917757013437</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02962939512659788</v>
+        <v>0.02940409038827729</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07477635766260965</v>
+        <v>0.08004069758284084</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -1858,19 +1858,19 @@
         <v>25347</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16250</v>
+        <v>16166</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37484</v>
+        <v>37103</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03874108292162155</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02483799754646339</v>
+        <v>0.02470908474092991</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05729177465468653</v>
+        <v>0.05671066346566902</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>54159</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>40622</v>
+        <v>42174</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>67110</v>
+        <v>68024</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1698595406955014</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1274031917267868</v>
+        <v>0.1322707436826123</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2104771721354735</v>
+        <v>0.2133434101353045</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>80</v>
@@ -1908,19 +1908,19 @@
         <v>79041</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>64335</v>
+        <v>64920</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>95468</v>
+        <v>95928</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2356532161647795</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1918103576248726</v>
+        <v>0.193553111793886</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2846283408291921</v>
+        <v>0.286001780349851</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>134</v>
@@ -1929,19 +1929,19 @@
         <v>133200</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>114773</v>
+        <v>113434</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>154679</v>
+        <v>153740</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2035893404422139</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1754249251702622</v>
+        <v>0.1733775126528365</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2364182815513129</v>
+        <v>0.2349843953604721</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>64616</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>51723</v>
+        <v>51902</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>80718</v>
+        <v>80523</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1801538944160096</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1442071791460761</v>
+        <v>0.1447066403226579</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2250471087245564</v>
+        <v>0.2245038355984461</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>59</v>
@@ -2054,19 +2054,19 @@
         <v>58039</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46026</v>
+        <v>45077</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72503</v>
+        <v>72344</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1566428690363855</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1242209533576386</v>
+        <v>0.1216601695055782</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1956815383819295</v>
+        <v>0.1952516680311974</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>126</v>
@@ -2075,19 +2075,19 @@
         <v>122655</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>103397</v>
+        <v>103726</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>141921</v>
+        <v>144863</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.168207420095043</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.141797172604039</v>
+        <v>0.1422491343884752</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1946290562520947</v>
+        <v>0.1986640253079301</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>100419</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>83998</v>
+        <v>84868</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>117736</v>
+        <v>119195</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2799760198806273</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.23419161314534</v>
+        <v>0.2366174978064957</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3282561324603073</v>
+        <v>0.3323246537824192</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>64</v>
@@ -2125,19 +2125,19 @@
         <v>60504</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>48013</v>
+        <v>47753</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>76413</v>
+        <v>75944</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1632975902138672</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1295834590997209</v>
+        <v>0.1288812511308629</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.206234149149586</v>
+        <v>0.2049683811418744</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>163</v>
@@ -2146,19 +2146,19 @@
         <v>160924</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>140591</v>
+        <v>139011</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>183285</v>
+        <v>183798</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2206891176159273</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1928052114534964</v>
+        <v>0.1906386378131048</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2513543577750053</v>
+        <v>0.2520580994745807</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>126715</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>108934</v>
+        <v>108548</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>144721</v>
+        <v>144915</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3532907876945245</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3037156813138269</v>
+        <v>0.3026391347955261</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4034913516781443</v>
+        <v>0.4040328250040636</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>164</v>
@@ -2196,19 +2196,19 @@
         <v>158050</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>140495</v>
+        <v>140860</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>177116</v>
+        <v>175767</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4265673803321828</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.379187766416867</v>
+        <v>0.3801716198449564</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4780245173654004</v>
+        <v>0.4743854663764808</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>292</v>
@@ -2217,19 +2217,19 @@
         <v>284766</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>260413</v>
+        <v>258607</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>310677</v>
+        <v>309622</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3905242523409614</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3571279159598554</v>
+        <v>0.3546512085354513</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.426058779960207</v>
+        <v>0.4246117931400604</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>29654</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20744</v>
+        <v>21205</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41620</v>
+        <v>40906</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08267651958716207</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0578361704128056</v>
+        <v>0.05912196054580826</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1160381742136533</v>
+        <v>0.1140492230580008</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -2267,19 +2267,19 @@
         <v>37215</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27061</v>
+        <v>27133</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49607</v>
+        <v>49592</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1004413444724482</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07303598676248604</v>
+        <v>0.07323147054825449</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1338853908053158</v>
+        <v>0.1338459584353323</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>67</v>
@@ -2288,19 +2288,19 @@
         <v>66869</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51951</v>
+        <v>52405</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83056</v>
+        <v>84589</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09170322177823136</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07124469947726271</v>
+        <v>0.07186695055154864</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1139016326512374</v>
+        <v>0.1160040590584295</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>37267</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>27721</v>
+        <v>27286</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>50708</v>
+        <v>48983</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1039027784216765</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07728853969866246</v>
+        <v>0.07607513737375804</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1413777802773619</v>
+        <v>0.1365691751218921</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>58</v>
@@ -2338,19 +2338,19 @@
         <v>56708</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>43294</v>
+        <v>44390</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>71382</v>
+        <v>72364</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1530508159451164</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1168471334351443</v>
+        <v>0.1198068567811215</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1926552056317553</v>
+        <v>0.1953049656973933</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>97</v>
@@ -2359,19 +2359,19 @@
         <v>93975</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>77070</v>
+        <v>78522</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>112285</v>
+        <v>115987</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1288759881698369</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1056934829736477</v>
+        <v>0.1076836894597014</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1539867973929688</v>
+        <v>0.1590628695471414</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>40137</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29572</v>
+        <v>29190</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>52519</v>
+        <v>52192</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1974216633813887</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1454547015619689</v>
+        <v>0.1435728420849248</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2583226451803394</v>
+        <v>0.2567140575430847</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>31</v>
@@ -2484,19 +2484,19 @@
         <v>31322</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>22285</v>
+        <v>21142</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>42737</v>
+        <v>42890</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1508296712774942</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1073089219952388</v>
+        <v>0.1018047325071581</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.205794244847065</v>
+        <v>0.2065303365014437</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>71</v>
@@ -2505,19 +2505,19 @@
         <v>71460</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>58416</v>
+        <v>57263</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>87234</v>
+        <v>88532</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1738785252582411</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1421390431262549</v>
+        <v>0.1393352389610975</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2122603289104549</v>
+        <v>0.2154177508030655</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>41901</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>31648</v>
+        <v>32404</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>53924</v>
+        <v>54092</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2060954716246269</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1556651530819387</v>
+        <v>0.1593854164101349</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2652309272124017</v>
+        <v>0.2660570843832137</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>39</v>
@@ -2555,19 +2555,19 @@
         <v>42551</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>32474</v>
+        <v>31192</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>55423</v>
+        <v>54619</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2048971587258422</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1563752510234594</v>
+        <v>0.1502014159151301</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2668824788326813</v>
+        <v>0.2630124934556326</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>83</v>
@@ -2576,19 +2576,19 @@
         <v>84451</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>67625</v>
+        <v>68382</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>102385</v>
+        <v>100401</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2054899588569408</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1645478612522329</v>
+        <v>0.1663895054731607</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.249125648032893</v>
+        <v>0.244298266845742</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>36471</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>26606</v>
+        <v>27080</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>48573</v>
+        <v>48400</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1793902670300517</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.130865830686465</v>
+        <v>0.1331988866189369</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2389110844705482</v>
+        <v>0.2380623168768412</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>32</v>
@@ -2626,19 +2626,19 @@
         <v>33780</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>24032</v>
+        <v>23167</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>45347</v>
+        <v>45022</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1626620268002225</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1157236145450939</v>
+        <v>0.1115561358697056</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2183639941177432</v>
+        <v>0.2167996637437622</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>67</v>
@@ -2647,19 +2647,19 @@
         <v>70251</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>55769</v>
+        <v>55373</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>86735</v>
+        <v>84968</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.170937413814206</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1356979543667102</v>
+        <v>0.1347353663565271</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2110452028321422</v>
+        <v>0.2067470591342621</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>14297</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8391</v>
+        <v>8197</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22639</v>
+        <v>22990</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07032054219710351</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04127367329680539</v>
+        <v>0.04031633710433947</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1113515249003185</v>
+        <v>0.1130775678537659</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>16</v>
@@ -2697,19 +2697,19 @@
         <v>15701</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>9549</v>
+        <v>9579</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>23761</v>
+        <v>25594</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07560716260363563</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04598109573780957</v>
+        <v>0.04612681381685663</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1144200448190713</v>
+        <v>0.1232463317091038</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>31</v>
@@ -2718,19 +2718,19 @@
         <v>29998</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>21008</v>
+        <v>20491</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>42088</v>
+        <v>41105</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07299189469386085</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05111840193402319</v>
+        <v>0.04985913717291118</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1024088248063438</v>
+        <v>0.100017537045084</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>70502</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>57292</v>
+        <v>57583</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>84627</v>
+        <v>83544</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3467720557668292</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2818005788547336</v>
+        <v>0.2832318195750468</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4162487789060809</v>
+        <v>0.4109251419433153</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>80</v>
@@ -2768,19 +2768,19 @@
         <v>84314</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>72156</v>
+        <v>70454</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>100854</v>
+        <v>99083</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4060039805928054</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3474603910302043</v>
+        <v>0.3392647493675968</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4856510798040489</v>
+        <v>0.4771226407655517</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>152</v>
@@ -2789,19 +2789,19 @@
         <v>154816</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>134790</v>
+        <v>136325</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>174123</v>
+        <v>177004</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3767022073767512</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.327975051376952</v>
+        <v>0.331709732779897</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4236806328437922</v>
+        <v>0.4306910244710417</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>47675</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>35766</v>
+        <v>36807</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>61253</v>
+        <v>60325</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1760441531592349</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1320702965743005</v>
+        <v>0.1359156004956052</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2261840082036456</v>
+        <v>0.2227584157582083</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>49</v>
@@ -2914,19 +2914,19 @@
         <v>50134</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>39262</v>
+        <v>39384</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>64407</v>
+        <v>65434</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1802441089916252</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1411564761887449</v>
+        <v>0.1415972731789838</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2315581609437161</v>
+        <v>0.2352532618545723</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>97</v>
@@ -2935,19 +2935,19 @@
         <v>97809</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>79725</v>
+        <v>80054</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>117923</v>
+        <v>117335</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1781721827910581</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1452310875789899</v>
+        <v>0.1458294649450619</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2148134877411428</v>
+        <v>0.2137421156083187</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>54229</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>41732</v>
+        <v>41734</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>68029</v>
+        <v>67511</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2002456422376998</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1540984415280984</v>
+        <v>0.1541080762569988</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2512056518739416</v>
+        <v>0.2492917060318608</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>35</v>
@@ -2985,19 +2985,19 @@
         <v>36131</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>26066</v>
+        <v>26161</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>48199</v>
+        <v>48666</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1299012518874016</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09371372329836286</v>
+        <v>0.09405400272561318</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1732887828941677</v>
+        <v>0.1749658676434559</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>89</v>
@@ -3006,19 +3006,19 @@
         <v>90360</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>75668</v>
+        <v>74498</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>107270</v>
+        <v>109235</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1646036133517009</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1378393698371065</v>
+        <v>0.135707959918393</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1954068840536288</v>
+        <v>0.198986559724423</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>110128</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>95216</v>
+        <v>93534</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>127226</v>
+        <v>125090</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.406658481696299</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3515941004205073</v>
+        <v>0.3453844074174327</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4697947697756449</v>
+        <v>0.4619080958612853</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>122</v>
@@ -3056,19 +3056,19 @@
         <v>125727</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>109142</v>
+        <v>108320</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>142509</v>
+        <v>141941</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4520216815310494</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.392392533154542</v>
+        <v>0.389439342207323</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.512357302596124</v>
+        <v>0.5103154842915437</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>230</v>
@@ -3077,19 +3077,19 @@
         <v>235855</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>213732</v>
+        <v>211842</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>259087</v>
+        <v>258808</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4296430647002892</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3893436924151478</v>
+        <v>0.385899996876266</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4719640795657831</v>
+        <v>0.471455482819947</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>8631</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3890</v>
+        <v>3932</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>15127</v>
+        <v>15091</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03186987537830673</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01436475253061267</v>
+        <v>0.01452057985982146</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05585747416348551</v>
+        <v>0.0557256600889709</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>16</v>
@@ -3127,19 +3127,19 @@
         <v>16367</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>9612</v>
+        <v>9529</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>25303</v>
+        <v>25514</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05884316931769337</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03455751628317824</v>
+        <v>0.03425826423495284</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.09096976221203376</v>
+        <v>0.09173004408908228</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>25</v>
@@ -3148,19 +3148,19 @@
         <v>24998</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>16234</v>
+        <v>17041</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>36669</v>
+        <v>36584</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04553667833090466</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02957241984360681</v>
+        <v>0.03104237087649256</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0667979330252754</v>
+        <v>0.06664239589650979</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>50149</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>38173</v>
+        <v>39184</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>63791</v>
+        <v>63788</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1851818475284595</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1409566558951257</v>
+        <v>0.1446905460208082</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2355553109500438</v>
+        <v>0.2355451679602052</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>48</v>
@@ -3198,19 +3198,19 @@
         <v>49785</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>38780</v>
+        <v>37358</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>65112</v>
+        <v>64203</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1789897882722305</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.13942361756747</v>
+        <v>0.1343109576416578</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2340960487288537</v>
+        <v>0.2308263881620674</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>95</v>
@@ -3219,19 +3219,19 @@
         <v>99934</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>81438</v>
+        <v>82024</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>119014</v>
+        <v>119119</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1820444608260471</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1483506115515846</v>
+        <v>0.1494181504534809</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2168015341841996</v>
+        <v>0.2169916434967659</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>165146</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>144925</v>
+        <v>143916</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>188084</v>
+        <v>190901</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2685180930629729</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2356406296633059</v>
+        <v>0.2339998241127905</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3058135467868962</v>
+        <v>0.3103950284992085</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>147</v>
@@ -3344,19 +3344,19 @@
         <v>154149</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>133202</v>
+        <v>133189</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>174969</v>
+        <v>174958</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2415296006305039</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2087081837883123</v>
+        <v>0.2086887976789227</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2741523581032588</v>
+        <v>0.2741340302344259</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>306</v>
@@ -3365,19 +3365,19 @@
         <v>319295</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>286649</v>
+        <v>286779</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>349352</v>
+        <v>351440</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2547741281062796</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2287254305495164</v>
+        <v>0.2288286164144619</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2787580404060021</v>
+        <v>0.2804234482759467</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>87118</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>72046</v>
+        <v>70056</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>106572</v>
+        <v>105233</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.141649671552179</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1171434520210232</v>
+        <v>0.1139065245548721</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1732803250781015</v>
+        <v>0.171103262423504</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>64</v>
@@ -3415,19 +3415,19 @@
         <v>63709</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>49389</v>
+        <v>49949</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>80770</v>
+        <v>80753</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.09982264884077163</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07738639169361763</v>
+        <v>0.07826234402628346</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1265547759145997</v>
+        <v>0.1265283959587374</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>148</v>
@@ -3436,19 +3436,19 @@
         <v>150827</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>128794</v>
+        <v>130003</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>176114</v>
+        <v>178568</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.120349143713255</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1027684617920726</v>
+        <v>0.1037328095464394</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1405259207552104</v>
+        <v>0.142484113208946</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>211580</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>187678</v>
+        <v>189064</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>235387</v>
+        <v>236995</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3440174034457611</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3051546124848375</v>
+        <v>0.3074076932962015</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3827259085982137</v>
+        <v>0.3853409055444861</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>226</v>
@@ -3486,19 +3486,19 @@
         <v>234871</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>209526</v>
+        <v>210272</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>260242</v>
+        <v>259980</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3680093469007736</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3282980801051765</v>
+        <v>0.3294672725415547</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4077631351540598</v>
+        <v>0.4073527649873801</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>430</v>
@@ -3507,19 +3507,19 @@
         <v>446451</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>412563</v>
+        <v>414103</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>481406</v>
+        <v>482788</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3562353674877968</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3291953547292779</v>
+        <v>0.3304245341818891</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.384127003423553</v>
+        <v>0.3852302397963744</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>28121</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>18485</v>
+        <v>19191</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>38504</v>
+        <v>40676</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04572358170551004</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03005604064031338</v>
+        <v>0.03120402655636997</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06260460947329037</v>
+        <v>0.06613650730913083</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>23</v>
@@ -3557,19 +3557,19 @@
         <v>23397</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>15174</v>
+        <v>15398</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>35088</v>
+        <v>34537</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.03666042057470736</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02377543253936676</v>
+        <v>0.02412624258878632</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05497845693850246</v>
+        <v>0.05411441678298191</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>53</v>
@@ -3578,19 +3578,19 @@
         <v>51519</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>38773</v>
+        <v>38710</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>67019</v>
+        <v>66323</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04110814165118682</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03093786845171853</v>
+        <v>0.03088745771350482</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.05347659830997146</v>
+        <v>0.05292080122987454</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>123062</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>102483</v>
+        <v>104165</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>142019</v>
+        <v>142950</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2000912502335769</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1666309493872445</v>
+        <v>0.1693662807871853</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.230914837783283</v>
+        <v>0.2324295355780351</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>161</v>
@@ -3628,19 +3628,19 @@
         <v>162094</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>140945</v>
+        <v>140417</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>185944</v>
+        <v>185269</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2539779830532435</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2208405894855226</v>
+        <v>0.2200131221285647</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2913482608102556</v>
+        <v>0.2902903811350488</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>282</v>
@@ -3649,19 +3649,19 @@
         <v>285155</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>257623</v>
+        <v>256624</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>316829</v>
+        <v>314590</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2275332190414817</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2055643354157691</v>
+        <v>0.2047677601766243</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2528070392677089</v>
+        <v>0.251020290700424</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>214167</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>190533</v>
+        <v>190512</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>239539</v>
+        <v>237451</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2883329131162571</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2565148137042789</v>
+        <v>0.2564867140820585</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3224910783952367</v>
+        <v>0.3196801706071538</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>200</v>
@@ -3774,19 +3774,19 @@
         <v>206052</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>183105</v>
+        <v>181106</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>230192</v>
+        <v>231765</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.264111279674296</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2346987959463884</v>
+        <v>0.2321362665278579</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2950527821534291</v>
+        <v>0.2970694368637596</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>419</v>
@@ -3795,19 +3795,19 @@
         <v>420219</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>383500</v>
+        <v>383994</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>453594</v>
+        <v>455279</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2759247246092387</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.251814245419925</v>
+        <v>0.2521385999500318</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2978391601912346</v>
+        <v>0.2989458344169238</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>229405</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>203084</v>
+        <v>205589</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>254817</v>
+        <v>256336</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3088482247142615</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2734124253956166</v>
+        <v>0.2767840169750929</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.343060460433226</v>
+        <v>0.3451051675908332</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>210</v>
@@ -3845,19 +3845,19 @@
         <v>222031</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>198832</v>
+        <v>196538</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>250428</v>
+        <v>247569</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2845920091289588</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2548567845300409</v>
+        <v>0.2519163617135518</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3209903827286706</v>
+        <v>0.3173262393549462</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>438</v>
@@ -3866,19 +3866,19 @@
         <v>451436</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>413951</v>
+        <v>414479</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>483751</v>
+        <v>487019</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2964223205666119</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2718089638614008</v>
+        <v>0.272155766834375</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3176409606444266</v>
+        <v>0.3197867421647752</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>121575</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>100716</v>
+        <v>101369</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>142835</v>
+        <v>142480</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1636764897819463</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1355935180339057</v>
+        <v>0.136473450276973</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1922987188106089</v>
+        <v>0.19182016715495</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>125</v>
@@ -3916,19 +3916,19 @@
         <v>132766</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>112732</v>
+        <v>112707</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>158048</v>
+        <v>155259</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1701758143175111</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1444968880374845</v>
+        <v>0.1444641611030469</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2025814858434725</v>
+        <v>0.1990060524852197</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>242</v>
@@ -3937,19 +3937,19 @@
         <v>254342</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>225382</v>
+        <v>225532</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>285071</v>
+        <v>282686</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1670059450062942</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1479902203806132</v>
+        <v>0.1480892874592309</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1871834445930249</v>
+        <v>0.1856172328739708</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>50902</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>38205</v>
+        <v>37805</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>67597</v>
+        <v>66917</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.06852996043924171</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.05143514593268196</v>
+        <v>0.05089687877468968</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.09100550039294526</v>
+        <v>0.0900898176635893</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>58</v>
@@ -3987,19 +3987,19 @@
         <v>61373</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>47082</v>
+        <v>48161</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>77362</v>
+        <v>78723</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.07866562960080156</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.06034860981859121</v>
+        <v>0.06173135809092285</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.09916060344088717</v>
+        <v>0.1009047160911002</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>107</v>
@@ -4008,19 +4008,19 @@
         <v>112275</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>93813</v>
+        <v>92881</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>133483</v>
+        <v>134004</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.07372223179875846</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.0615997572374351</v>
+        <v>0.06098781989068431</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.08764765840693534</v>
+        <v>0.08798981562872646</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>126727</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>105402</v>
+        <v>105687</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>150817</v>
+        <v>149124</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1706124119482933</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1419024151723615</v>
+        <v>0.1422865243307767</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2030451467329386</v>
+        <v>0.2007661111375591</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>149</v>
@@ -4058,19 +4058,19 @@
         <v>157950</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>136177</v>
+        <v>139687</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>181684</v>
+        <v>183440</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2024552672784325</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1745467868120766</v>
+        <v>0.1790465816534012</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2328767537888803</v>
+        <v>0.2351270102781714</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>271</v>
@@ -4079,19 +4079,19 @@
         <v>284677</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>257470</v>
+        <v>252723</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>317729</v>
+        <v>315582</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1869247780190967</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1690598419152954</v>
+        <v>0.1659428569417132</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.208627539954219</v>
+        <v>0.207217587924167</v>
       </c>
     </row>
     <row r="51">
@@ -4183,19 +4183,19 @@
         <v>719368</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>670302</v>
+        <v>672112</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>768319</v>
+        <v>766449</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.2197542703176497</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.2047653240257098</v>
+        <v>0.205318285329975</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2347079855686769</v>
+        <v>0.2341366698258588</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>660</v>
@@ -4204,19 +4204,19 @@
         <v>679575</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>638709</v>
+        <v>631871</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>735157</v>
+        <v>728040</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.2014338547165477</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1893205713201033</v>
+        <v>0.1872939740004</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2179089189347768</v>
+        <v>0.2157993503639103</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>1368</v>
@@ -4225,19 +4225,19 @@
         <v>1398943</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>1334147</v>
+        <v>1331336</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>1463410</v>
+        <v>1468254</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.2104560143211065</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.2007081434571537</v>
+        <v>0.2002853211656812</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.2201543368124636</v>
+        <v>0.2208831620302016</v>
       </c>
     </row>
     <row r="53">
@@ -4254,19 +4254,19 @@
         <v>751022</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>702552</v>
+        <v>710045</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>796765</v>
+        <v>804203</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.2294239506559946</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2146171191945775</v>
+        <v>0.2169062772625466</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2433977888852922</v>
+        <v>0.2456699049846511</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>591</v>
@@ -4275,19 +4275,19 @@
         <v>613602</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>571073</v>
+        <v>572127</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>655549</v>
+        <v>660790</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1818787684894895</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1692727376425231</v>
+        <v>0.1695848996403672</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1943124141285025</v>
+        <v>0.1958656780986146</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1329</v>
@@ -4296,19 +4296,19 @@
         <v>1364624</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1301895</v>
+        <v>1294819</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1433113</v>
+        <v>1428991</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.2052930965961199</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1958562060756484</v>
+        <v>0.1947917436893</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2155965520439093</v>
+        <v>0.2149764668536517</v>
       </c>
     </row>
     <row r="54">
@@ -4325,19 +4325,19 @@
         <v>967238</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>919876</v>
+        <v>917082</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1025439</v>
+        <v>1024005</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2954742144471698</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2810057781252002</v>
+        <v>0.2801524624271582</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3132534325914625</v>
+        <v>0.3128155012644703</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>968</v>
@@ -4346,19 +4346,19 @@
         <v>991507</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>939441</v>
+        <v>945163</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1041802</v>
+        <v>1045954</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2938940028381642</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2784612832510341</v>
+        <v>0.2801572838130407</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3088020044061979</v>
+        <v>0.3100328977766597</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1911</v>
@@ -4367,19 +4367,19 @@
         <v>1958745</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1880586</v>
+        <v>1886068</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>2030372</v>
+        <v>2029398</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2946722014148694</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2829139981476082</v>
+        <v>0.283738750394445</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3054477014097673</v>
+        <v>0.3053012090264733</v>
       </c>
     </row>
     <row r="55">
@@ -4396,19 +4396,19 @@
         <v>195831</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>166972</v>
+        <v>170789</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>223070</v>
+        <v>225640</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.05982291734037309</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.0510069865144559</v>
+        <v>0.05217305116039907</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.06814396566331163</v>
+        <v>0.06892894309014123</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>253</v>
@@ -4417,19 +4417,19 @@
         <v>257386</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>231005</v>
+        <v>225513</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>288128</v>
+        <v>288241</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.07629227196449773</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.0684726843635946</v>
+        <v>0.06684453320307548</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.0854043268350012</v>
+        <v>0.08543785459948119</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>446</v>
@@ -4438,19 +4438,19 @@
         <v>453217</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>413624</v>
+        <v>415315</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>499962</v>
+        <v>496326</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.06818169471351038</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.06222529200649195</v>
+        <v>0.06247964230182626</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.07521393723880038</v>
+        <v>0.07466701034166116</v>
       </c>
     </row>
     <row r="56">
@@ -4467,19 +4467,19 @@
         <v>640052</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>595331</v>
+        <v>594006</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>685331</v>
+        <v>685870</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1955246472388129</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1818630841785074</v>
+        <v>0.1814583349538244</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2093564363390945</v>
+        <v>0.209521303226208</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>820</v>
@@ -4488,19 +4488,19 @@
         <v>831618</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>783170</v>
+        <v>780854</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>883761</v>
+        <v>880166</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2465011019913009</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2321406868616072</v>
+        <v>0.2314542354595665</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2619569719341148</v>
+        <v>0.2608912520710112</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1449</v>
@@ -4509,19 +4509,19 @@
         <v>1471670</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1403827</v>
+        <v>1407633</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1544109</v>
+        <v>1536934</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2213969929543938</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2111908007555417</v>
+        <v>0.2117633837608131</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2322947343075368</v>
+        <v>0.2312153192706884</v>
       </c>
     </row>
     <row r="57">
@@ -4857,19 +4857,19 @@
         <v>99592</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>83504</v>
+        <v>82415</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>117615</v>
+        <v>116983</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3388746009405016</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.284134568329429</v>
+        <v>0.2804297737182007</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4002038114123788</v>
+        <v>0.3980512017617979</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -4878,19 +4878,19 @@
         <v>78578</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>63035</v>
+        <v>63744</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94819</v>
+        <v>94972</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2755786044890485</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2210698292188943</v>
+        <v>0.2235544609619333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.332536648590136</v>
+        <v>0.3330740090199864</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>161</v>
@@ -4899,19 +4899,19 @@
         <v>178169</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>155714</v>
+        <v>155421</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>203522</v>
+        <v>201351</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3077048709734446</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2689232040795312</v>
+        <v>0.2684178957025481</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3514893950093999</v>
+        <v>0.3477408570098894</v>
       </c>
     </row>
     <row r="5">
@@ -4928,19 +4928,19 @@
         <v>54761</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42267</v>
+        <v>41303</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>69871</v>
+        <v>68651</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1863307366924578</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1438204524877042</v>
+        <v>0.1405397974226045</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2377459223379514</v>
+        <v>0.2335943844101221</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -4949,19 +4949,19 @@
         <v>34545</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23923</v>
+        <v>24109</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46331</v>
+        <v>48184</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1211501246658705</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0839001122174786</v>
+        <v>0.08455041157705998</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1624863144765094</v>
+        <v>0.1689834324305627</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>86</v>
@@ -4970,19 +4970,19 @@
         <v>89305</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>73960</v>
+        <v>72570</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>109359</v>
+        <v>107866</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.154232939203568</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1277311295012294</v>
+        <v>0.1253312148557651</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1888675802207281</v>
+        <v>0.1862881110832988</v>
       </c>
     </row>
     <row r="6">
@@ -4999,19 +4999,19 @@
         <v>45387</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34519</v>
+        <v>34710</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>59114</v>
+        <v>59067</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1544360253992882</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1174570168719856</v>
+        <v>0.1181041565105285</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2011446849311652</v>
+        <v>0.2009824000579024</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>42</v>
@@ -5020,19 +5020,19 @@
         <v>47240</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>34614</v>
+        <v>35013</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>61715</v>
+        <v>61293</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.165672558777869</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1213948945144353</v>
+        <v>0.1227932967058534</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2164392023792065</v>
+        <v>0.214959079790132</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>86</v>
@@ -5041,19 +5041,19 @@
         <v>92627</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>75538</v>
+        <v>75328</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>113774</v>
+        <v>112354</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1599693881838493</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1304575838281863</v>
+        <v>0.1300941490671826</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1964922877601676</v>
+        <v>0.1940399777124927</v>
       </c>
     </row>
     <row r="7">
@@ -5070,19 +5070,19 @@
         <v>19580</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11359</v>
+        <v>12216</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29650</v>
+        <v>32310</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06662411929670305</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03864959910530814</v>
+        <v>0.04156622351313874</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1008873863305636</v>
+        <v>0.1099402950376529</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -5091,19 +5091,19 @@
         <v>20278</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12484</v>
+        <v>11817</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31422</v>
+        <v>31441</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07111551794659676</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04378125466163025</v>
+        <v>0.04144136787600809</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1101979331660397</v>
+        <v>0.1102669979653551</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -5112,19 +5112,19 @@
         <v>39858</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28341</v>
+        <v>28503</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56221</v>
+        <v>56487</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06883588135023143</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04894539519984124</v>
+        <v>0.04922593703112371</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09709535076189986</v>
+        <v>0.09755507998508799</v>
       </c>
     </row>
     <row r="8">
@@ -5141,19 +5141,19 @@
         <v>74570</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>60902</v>
+        <v>59925</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>90704</v>
+        <v>89235</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2537345176710493</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2072286326283164</v>
+        <v>0.2039049950731846</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3086325701444435</v>
+        <v>0.3036353321722673</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>91</v>
@@ -5162,19 +5162,19 @@
         <v>104498</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>86882</v>
+        <v>87304</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>122491</v>
+        <v>122017</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3664831941206152</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3047027612545364</v>
+        <v>0.3061798262608402</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4295860550454964</v>
+        <v>0.427921631262668</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>166</v>
@@ -5183,19 +5183,19 @@
         <v>179068</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>156063</v>
+        <v>155382</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>202413</v>
+        <v>201561</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3092569202889066</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2695255411644289</v>
+        <v>0.2683498805441019</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3495748013339657</v>
+        <v>0.3481034774953101</v>
       </c>
     </row>
     <row r="9">
@@ -5287,19 +5287,19 @@
         <v>184263</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>159450</v>
+        <v>163619</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>205692</v>
+        <v>208238</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3644974048856831</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3154125679863109</v>
+        <v>0.3236607276724149</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4068858306692875</v>
+        <v>0.4119218902908942</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>132</v>
@@ -5308,19 +5308,19 @@
         <v>146598</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>122395</v>
+        <v>125872</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>168112</v>
+        <v>168552</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2804430069692975</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2341419981358943</v>
+        <v>0.2407948845190916</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3215993063532131</v>
+        <v>0.3224408166471479</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>298</v>
@@ -5329,19 +5329,19 @@
         <v>330861</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>296948</v>
+        <v>301985</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>361742</v>
+        <v>363702</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3217668258205288</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2887860125751638</v>
+        <v>0.2936840798778959</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3517984755737387</v>
+        <v>0.3537048617373805</v>
       </c>
     </row>
     <row r="11">
@@ -5358,19 +5358,19 @@
         <v>108998</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>90822</v>
+        <v>91157</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>131294</v>
+        <v>129951</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2156133039641045</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1796589159725837</v>
+        <v>0.1803206725757448</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2597161560631297</v>
+        <v>0.2570601616529404</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>67</v>
@@ -5379,19 +5379,19 @@
         <v>74308</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>57734</v>
+        <v>59779</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>92258</v>
+        <v>93364</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1421515284404219</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1104460091295204</v>
+        <v>0.114357326288185</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1764909055174051</v>
+        <v>0.1786062776791718</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>163</v>
@@ -5400,19 +5400,19 @@
         <v>183306</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>157550</v>
+        <v>157249</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>209734</v>
+        <v>208245</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1782676767858102</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1532192781485966</v>
+        <v>0.1529262324771229</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2039686962356092</v>
+        <v>0.2025212603360812</v>
       </c>
     </row>
     <row r="12">
@@ -5429,19 +5429,19 @@
         <v>111415</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>94972</v>
+        <v>93265</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>131851</v>
+        <v>129870</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2203928371657358</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1878672505965756</v>
+        <v>0.1844911213954187</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2608183802288039</v>
+        <v>0.2569008466550501</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>125</v>
@@ -5450,19 +5450,19 @@
         <v>135282</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>114202</v>
+        <v>115100</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>155436</v>
+        <v>155735</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2587953249445673</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2184695671862403</v>
+        <v>0.2201876001350812</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2973509977214275</v>
+        <v>0.2979219580371729</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>235</v>
@@ -5471,19 +5471,19 @@
         <v>246696</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>220835</v>
+        <v>221370</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>277449</v>
+        <v>278426</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2399154389689675</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2147644022775533</v>
+        <v>0.2152856046210676</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2698229658957469</v>
+        <v>0.2707732968464219</v>
       </c>
     </row>
     <row r="13">
@@ -5500,19 +5500,19 @@
         <v>21961</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14442</v>
+        <v>14158</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32344</v>
+        <v>32158</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04344102719571245</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02856901141506576</v>
+        <v>0.02800690058127239</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06398114995815088</v>
+        <v>0.06361364471990136</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -5521,19 +5521,19 @@
         <v>46768</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34885</v>
+        <v>34140</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62666</v>
+        <v>61623</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08946760540051173</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06673548877922604</v>
+        <v>0.06531052479776191</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1198804347686273</v>
+        <v>0.1178858961504214</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -5542,19 +5542,19 @@
         <v>68729</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54093</v>
+        <v>53693</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85694</v>
+        <v>86516</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06683947377116861</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05260641701929226</v>
+        <v>0.05221750941062839</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08333813809636106</v>
+        <v>0.08413782512320046</v>
       </c>
     </row>
     <row r="14">
@@ -5571,19 +5571,19 @@
         <v>78890</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62354</v>
+        <v>63414</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>98052</v>
+        <v>96303</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1560554267887642</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1233447392179026</v>
+        <v>0.1254410724706159</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1939590143909116</v>
+        <v>0.1905002278914526</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>111</v>
@@ -5592,19 +5592,19 @@
         <v>119781</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>101277</v>
+        <v>100502</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>141652</v>
+        <v>138967</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2291425342452016</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1937435683098756</v>
+        <v>0.1922613632634705</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2709818878503075</v>
+        <v>0.2658447658147863</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>188</v>
@@ -5613,19 +5613,19 @@
         <v>198671</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>174845</v>
+        <v>174149</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>225722</v>
+        <v>227176</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1932105846535249</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1700387312548958</v>
+        <v>0.1693617445433045</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2195172072501778</v>
+        <v>0.2209315607886055</v>
       </c>
     </row>
     <row r="15">
@@ -5717,19 +5717,19 @@
         <v>199410</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>181176</v>
+        <v>181854</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>216587</v>
+        <v>215338</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6171569503985362</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5607225304685168</v>
+        <v>0.5628227495610436</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6703162146119933</v>
+        <v>0.6664533078771452</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>214</v>
@@ -5738,19 +5738,19 @@
         <v>228498</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>210270</v>
+        <v>209545</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>244831</v>
+        <v>246596</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6700418206734267</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6165900099351106</v>
+        <v>0.6144655385578931</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7179377449434903</v>
+        <v>0.7231122694635572</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>407</v>
@@ -5759,19 +5759,19 @@
         <v>427908</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>401598</v>
+        <v>403554</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>449844</v>
+        <v>451414</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6443124402392372</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6046975226120789</v>
+        <v>0.6076425534212541</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6773418461051756</v>
+        <v>0.6797058878874052</v>
       </c>
     </row>
     <row r="17">
@@ -5788,19 +5788,19 @@
         <v>67442</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>54728</v>
+        <v>54745</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>84324</v>
+        <v>83415</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2087280216784762</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1693785752654673</v>
+        <v>0.1694310931133835</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2609746665135755</v>
+        <v>0.2581610301086573</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>49</v>
@@ -5809,19 +5809,19 @@
         <v>52134</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40028</v>
+        <v>39493</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>66905</v>
+        <v>67104</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1528756426103766</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1173765536137284</v>
+        <v>0.1158085364580125</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.196189808848641</v>
+        <v>0.1967758388321749</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>116</v>
@@ -5830,19 +5830,19 @@
         <v>119576</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>101902</v>
+        <v>99622</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>140984</v>
+        <v>139263</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1800487660713601</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1534368361417149</v>
+        <v>0.1500035012420583</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.212283813584898</v>
+        <v>0.2096918553801152</v>
       </c>
     </row>
     <row r="18">
@@ -5859,19 +5859,19 @@
         <v>42710</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>32131</v>
+        <v>32660</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>56473</v>
+        <v>57727</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.132185063682449</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09944235522941271</v>
+        <v>0.1010799674312663</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.174779727197527</v>
+        <v>0.1786606948045961</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -5880,19 +5880,19 @@
         <v>30494</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21446</v>
+        <v>20874</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>42497</v>
+        <v>43954</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08941904045346884</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06288841584629525</v>
+        <v>0.06120981786459941</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1246181281650448</v>
+        <v>0.1288911304459308</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>71</v>
@@ -5901,19 +5901,19 @@
         <v>73204</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>58116</v>
+        <v>58000</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>90195</v>
+        <v>90037</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1102254313096123</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08750708940427929</v>
+        <v>0.08733273380614197</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1358096452045854</v>
+        <v>0.1355709006346943</v>
       </c>
     </row>
     <row r="19">
@@ -5930,19 +5930,19 @@
         <v>3826</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10514</v>
+        <v>9303</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01184135480399222</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003135224784286769</v>
+        <v>0.003152440123838768</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03254130215653016</v>
+        <v>0.02879150616190541</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -5951,19 +5951,19 @@
         <v>4848</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>998</v>
+        <v>1068</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12617</v>
+        <v>13140</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01421529168509134</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002927199836382888</v>
+        <v>0.003130482967256271</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03699869438614293</v>
+        <v>0.03853056836604213</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -5972,19 +5972,19 @@
         <v>8674</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3927</v>
+        <v>3888</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17950</v>
+        <v>16380</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01306033139450038</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005912264398848214</v>
+        <v>0.005854415355808495</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0270285472996972</v>
+        <v>0.02466347925161709</v>
       </c>
     </row>
     <row r="20">
@@ -6001,19 +6001,19 @@
         <v>9722</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4892</v>
+        <v>4891</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17580</v>
+        <v>17285</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03008860943654638</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01513943213110479</v>
+        <v>0.01513698890941135</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05440890087044487</v>
+        <v>0.05349646561774117</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>23</v>
@@ -6022,19 +6022,19 @@
         <v>25047</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16561</v>
+        <v>15706</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37048</v>
+        <v>36518</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07344820457763655</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0485631708839371</v>
+        <v>0.04605621518635584</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1086395253784455</v>
+        <v>0.1070844510482825</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>33</v>
@@ -6043,19 +6043,19 @@
         <v>34769</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>23635</v>
+        <v>24901</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>47528</v>
+        <v>47716</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05235303098529</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03558747175431637</v>
+        <v>0.03749374995305289</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07156406439128264</v>
+        <v>0.07184673007358124</v>
       </c>
     </row>
     <row r="21">
@@ -6147,19 +6147,19 @@
         <v>86880</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>68405</v>
+        <v>68973</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>105348</v>
+        <v>103749</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2329105626741182</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1833817610486848</v>
+        <v>0.1849061093309655</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2824208880236584</v>
+        <v>0.2781336696870681</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>74</v>
@@ -6168,19 +6168,19 @@
         <v>78906</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>63108</v>
+        <v>63840</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>95174</v>
+        <v>96023</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2028694324287322</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1622524045833411</v>
+        <v>0.1641342772249942</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2446939350959623</v>
+        <v>0.246875917020809</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>152</v>
@@ -6189,19 +6189,19 @@
         <v>165786</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>143480</v>
+        <v>140886</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>190114</v>
+        <v>190097</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2175758880876721</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1883012456314028</v>
+        <v>0.1848976607821647</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2495040364586594</v>
+        <v>0.2494809727197648</v>
       </c>
     </row>
     <row r="23">
@@ -6218,19 +6218,19 @@
         <v>85680</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>69434</v>
+        <v>69742</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>103492</v>
+        <v>104275</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2296940179524653</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1861414483705893</v>
+        <v>0.1869666233056082</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2774460041488001</v>
+        <v>0.2795460234012158</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>83</v>
@@ -6239,19 +6239,19 @@
         <v>88959</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>72903</v>
+        <v>71866</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>107984</v>
+        <v>105825</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2287139106917383</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1874358841986352</v>
+        <v>0.1847690513739851</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2776285791747919</v>
+        <v>0.2720769330078517</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>161</v>
@@ -6260,19 +6260,19 @@
         <v>174638</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>151320</v>
+        <v>151235</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>200322</v>
+        <v>200616</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2291937163399662</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1985905646132407</v>
+        <v>0.1984794157919549</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2629013427372803</v>
+        <v>0.2632860779949223</v>
       </c>
     </row>
     <row r="24">
@@ -6289,19 +6289,19 @@
         <v>39095</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26848</v>
+        <v>28457</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>52525</v>
+        <v>52741</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1048072197201291</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07197567405729277</v>
+        <v>0.07628743541991929</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1408115650084218</v>
+        <v>0.1413901988582777</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>52</v>
@@ -6310,19 +6310,19 @@
         <v>53768</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>40634</v>
+        <v>39277</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>69536</v>
+        <v>68659</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.138239590536433</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1044712776707551</v>
+        <v>0.1009830991890941</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1787792480340922</v>
+        <v>0.1765230207678605</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>89</v>
@@ -6331,19 +6331,19 @@
         <v>92863</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>76039</v>
+        <v>74996</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>114081</v>
+        <v>112889</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1218729733363785</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09979320243153059</v>
+        <v>0.09842356993149853</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1497186732326259</v>
+        <v>0.1481545711148529</v>
       </c>
     </row>
     <row r="25">
@@ -6360,19 +6360,19 @@
         <v>24757</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16468</v>
+        <v>16515</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35625</v>
+        <v>35899</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06636926604401126</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0441491205466633</v>
+        <v>0.04427540573496363</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09550545933919379</v>
+        <v>0.09623900900700981</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>31</v>
@@ -6381,19 +6381,19 @@
         <v>33623</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23284</v>
+        <v>24409</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>46803</v>
+        <v>48297</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08644548559442244</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05986456562492026</v>
+        <v>0.06275473615931368</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1203305442880432</v>
+        <v>0.1241732531704818</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>55</v>
@@ -6402,19 +6402,19 @@
         <v>58380</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>43211</v>
+        <v>45199</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>74456</v>
+        <v>73820</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0766172923738091</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05671012589731542</v>
+        <v>0.05931869251837994</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09771529798876732</v>
+        <v>0.09688136454529292</v>
       </c>
     </row>
     <row r="26">
@@ -6431,19 +6431,19 @@
         <v>136606</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>118002</v>
+        <v>118537</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>156107</v>
+        <v>155961</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3662189336092762</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3163440908204274</v>
+        <v>0.3177783900714973</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4184993383883348</v>
+        <v>0.4181060580356015</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>131</v>
@@ -6452,19 +6452,19 @@
         <v>133695</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>116295</v>
+        <v>116306</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>153662</v>
+        <v>153625</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3437315807486741</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2989954006498482</v>
+        <v>0.2990243760555172</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3950669793143595</v>
+        <v>0.3949736144813467</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>257</v>
@@ -6473,19 +6473,19 @@
         <v>270301</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>246700</v>
+        <v>242786</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>301749</v>
+        <v>296272</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3547401298621741</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3237672850081277</v>
+        <v>0.3186296839775695</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3960127185895151</v>
+        <v>0.3888250661616252</v>
       </c>
     </row>
     <row r="27">
@@ -6577,19 +6577,19 @@
         <v>79705</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>64372</v>
+        <v>65231</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>94274</v>
+        <v>94802</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3748734292515677</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3027596070849984</v>
+        <v>0.3067994929402206</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4433969343258371</v>
+        <v>0.4458809143305486</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>87</v>
@@ -6598,19 +6598,19 @@
         <v>89171</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>74953</v>
+        <v>75934</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>104423</v>
+        <v>105272</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4060767682357298</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3413294233697255</v>
+        <v>0.3457991895101461</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4755334536303627</v>
+        <v>0.4794009857267666</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>156</v>
@@ -6619,19 +6619,19 @@
         <v>168876</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>149143</v>
+        <v>145842</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>189693</v>
+        <v>188172</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3907268052497337</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3450725119447817</v>
+        <v>0.3374332958552159</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4388912008412721</v>
+        <v>0.4353719205179661</v>
       </c>
     </row>
     <row r="29">
@@ -6648,19 +6648,19 @@
         <v>76026</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>62361</v>
+        <v>63304</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>92117</v>
+        <v>91385</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3575715037468117</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2933016101506359</v>
+        <v>0.2977360134924976</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4332497876652798</v>
+        <v>0.4298088848811557</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>66</v>
@@ -6669,19 +6669,19 @@
         <v>67816</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>54373</v>
+        <v>53745</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>82294</v>
+        <v>82169</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3088301128566586</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2476109323422975</v>
+        <v>0.2447491142843141</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3747598101389124</v>
+        <v>0.3741908119729745</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>138</v>
@@ -6690,19 +6690,19 @@
         <v>143842</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>122145</v>
+        <v>126347</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>163412</v>
+        <v>164581</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.33280762841772</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2826055742043662</v>
+        <v>0.2923278250013779</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3780862864373625</v>
+        <v>0.3807907269269104</v>
       </c>
     </row>
     <row r="30">
@@ -6719,19 +6719,19 @@
         <v>33414</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>23868</v>
+        <v>23645</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>46135</v>
+        <v>45788</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1571536000265129</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1122593235238788</v>
+        <v>0.1112081858291931</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2169839720742061</v>
+        <v>0.2153517453843389</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>17</v>
@@ -6740,19 +6740,19 @@
         <v>17928</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10982</v>
+        <v>11073</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>27633</v>
+        <v>28452</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08164465650995946</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05001004122449704</v>
+        <v>0.0504265669535479</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1258384609977267</v>
+        <v>0.129565984360274</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>50</v>
@@ -6761,19 +6761,19 @@
         <v>51342</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>38421</v>
+        <v>38941</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>65208</v>
+        <v>64873</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1187900238271903</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08889376722018819</v>
+        <v>0.0900974188172914</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1508719444788983</v>
+        <v>0.1500965065685808</v>
       </c>
     </row>
     <row r="31">
@@ -6790,19 +6790,19 @@
         <v>6232</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2103</v>
+        <v>2917</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>12642</v>
+        <v>12829</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0293119347449243</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.009891066625941223</v>
+        <v>0.01371901576856051</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05945642493938259</v>
+        <v>0.06034058814285079</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>15</v>
@@ -6811,19 +6811,19 @@
         <v>15224</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>9355</v>
+        <v>9212</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>24644</v>
+        <v>24500</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0693274342175169</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04260229826241191</v>
+        <v>0.04195180092052184</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1122253651330565</v>
+        <v>0.1115723960680093</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>21</v>
@@ -6832,19 +6832,19 @@
         <v>21456</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>13640</v>
+        <v>13789</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>31243</v>
+        <v>31450</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0496424756275976</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03155996079708272</v>
+        <v>0.03190312691142862</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07228759098996322</v>
+        <v>0.07276671970877831</v>
       </c>
     </row>
     <row r="32">
@@ -6861,19 +6861,19 @@
         <v>17241</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9938</v>
+        <v>10363</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26722</v>
+        <v>27135</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08108953223018332</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04674332787588186</v>
+        <v>0.04874016287473473</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1256798784237444</v>
+        <v>0.1276249838976521</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>27</v>
@@ -6882,19 +6882,19 @@
         <v>29452</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>19952</v>
+        <v>20449</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>42034</v>
+        <v>41873</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1341210281801352</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09085987676364851</v>
+        <v>0.09312271078812448</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1914182473039027</v>
+        <v>0.1906860184041958</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>43</v>
@@ -6903,19 +6903,19 @@
         <v>46693</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>35063</v>
+        <v>34249</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>62577</v>
+        <v>61172</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1080330668777584</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08112437325846245</v>
+        <v>0.07924076141479314</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1447852689893736</v>
+        <v>0.1415335569145169</v>
       </c>
     </row>
     <row r="33">
@@ -7007,19 +7007,19 @@
         <v>166837</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>150530</v>
+        <v>149841</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>184364</v>
+        <v>183152</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6089370116732782</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5494160647426037</v>
+        <v>0.5469030882145234</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6729073482320279</v>
+        <v>0.6684847493167625</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>180</v>
@@ -7028,19 +7028,19 @@
         <v>185045</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>169472</v>
+        <v>166753</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>201615</v>
+        <v>199652</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6608010462042614</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6051888957186199</v>
+        <v>0.5954812645807299</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7199753345357974</v>
+        <v>0.7129641828025941</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>341</v>
@@ -7049,19 +7049,19 @@
         <v>351882</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>331231</v>
+        <v>328143</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>375771</v>
+        <v>374177</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6351522151546275</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5978767050251037</v>
+        <v>0.5923030241646305</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6782730852957132</v>
+        <v>0.6753959055764677</v>
       </c>
     </row>
     <row r="35">
@@ -7078,19 +7078,19 @@
         <v>58403</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>46085</v>
+        <v>45667</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>75108</v>
+        <v>74249</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2131637820449277</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1682042955552571</v>
+        <v>0.1666810415979529</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2741362147540302</v>
+        <v>0.2710003241407996</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>42</v>
@@ -7099,19 +7099,19 @@
         <v>43158</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>30942</v>
+        <v>32308</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>56480</v>
+        <v>55951</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.154116983075742</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1104959207924127</v>
+        <v>0.1153714790221887</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2016924122861037</v>
+        <v>0.1998016889853931</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>96</v>
@@ -7120,19 +7120,19 @@
         <v>101560</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>82879</v>
+        <v>83365</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>123915</v>
+        <v>121691</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1833179772613679</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1495983211695422</v>
+        <v>0.1504754505620879</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2236681622842195</v>
+        <v>0.2196544351245585</v>
       </c>
     </row>
     <row r="36">
@@ -7149,19 +7149,19 @@
         <v>25193</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>16169</v>
+        <v>16538</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>35339</v>
+        <v>36821</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09195312648691265</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05901468418831417</v>
+        <v>0.06036234035149149</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.128982518340442</v>
+        <v>0.1343941550198062</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>19</v>
@@ -7170,19 +7170,19 @@
         <v>20602</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>12139</v>
+        <v>12879</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>31655</v>
+        <v>30833</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.07357084724930764</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04334733102401989</v>
+        <v>0.0459928813191901</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1130401987838563</v>
+        <v>0.1101057025427098</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>43</v>
@@ -7191,19 +7191,19 @@
         <v>45796</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>33269</v>
+        <v>34638</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>60586</v>
+        <v>62973</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.08266161657985137</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.06005079280401403</v>
+        <v>0.06252123472267006</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1093578734441527</v>
+        <v>0.1136678092202686</v>
       </c>
     </row>
     <row r="37">
@@ -7220,19 +7220,19 @@
         <v>5096</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2000</v>
+        <v>2020</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>11217</v>
+        <v>12253</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01860010489930534</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.007299362860869234</v>
+        <v>0.007374087373345666</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04094113735563674</v>
+        <v>0.04472214844116112</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>9</v>
@@ -7241,19 +7241,19 @@
         <v>9114</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>4142</v>
+        <v>4910</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>16333</v>
+        <v>17368</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03254509331665784</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01479101312518139</v>
+        <v>0.01753488380838579</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05832712873816763</v>
+        <v>0.06202135731505175</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>14</v>
@@ -7262,19 +7262,19 @@
         <v>14210</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>7977</v>
+        <v>8155</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>22648</v>
+        <v>23267</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02564874105366325</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01439818888055542</v>
+        <v>0.01471965910996913</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04087958537539646</v>
+        <v>0.04199778780165143</v>
       </c>
     </row>
     <row r="38">
@@ -7291,19 +7291,19 @@
         <v>18452</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>10784</v>
+        <v>11545</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>28065</v>
+        <v>29414</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.06734597489557612</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03936192484620545</v>
+        <v>0.04213684941360802</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1024328445980338</v>
+        <v>0.1073575293616256</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>19</v>
@@ -7312,19 +7312,19 @@
         <v>22113</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>13765</v>
+        <v>14067</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>33547</v>
+        <v>35013</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.07896603015403117</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.04915423136089212</v>
+        <v>0.05023459306898303</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1197959256858687</v>
+        <v>0.1250310888907232</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>36</v>
@@ -7333,19 +7333,19 @@
         <v>40564</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>29670</v>
+        <v>29704</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>55317</v>
+        <v>55790</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.07321944995049</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.05355508370210529</v>
+        <v>0.05361697912537872</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.09984876403308891</v>
+        <v>0.1007020746893057</v>
       </c>
     </row>
     <row r="39">
@@ -7437,19 +7437,19 @@
         <v>360630</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>331076</v>
+        <v>330087</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>386330</v>
+        <v>386795</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.5441112134111673</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.4995205309850175</v>
+        <v>0.4980286409011799</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5828863056357473</v>
+        <v>0.5835882285894959</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>362</v>
@@ -7458,19 +7458,19 @@
         <v>389457</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>362447</v>
+        <v>361679</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>416373</v>
+        <v>414643</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5635512619894354</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5244681825674068</v>
+        <v>0.5233556817553354</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.6024992756582042</v>
+        <v>0.5999963732008053</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>702</v>
@@ -7479,19 +7479,19 @@
         <v>750087</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>710756</v>
+        <v>710149</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>789324</v>
+        <v>787383</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.554034330907541</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.524983237652688</v>
+        <v>0.5245349335025575</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5830157797442006</v>
+        <v>0.5815819638793936</v>
       </c>
     </row>
     <row r="41">
@@ -7508,19 +7508,19 @@
         <v>107572</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>89769</v>
+        <v>87461</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>128798</v>
+        <v>127953</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.162302186075203</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1354421910341847</v>
+        <v>0.1319596820288153</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1943276780066622</v>
+        <v>0.193052321320116</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>80</v>
@@ -7529,19 +7529,19 @@
         <v>86030</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>69558</v>
+        <v>69027</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>104278</v>
+        <v>105119</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1244874192450967</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1006517049406108</v>
+        <v>0.09988400030594943</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.150891624365269</v>
+        <v>0.1521092153860502</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>184</v>
@@ -7550,19 +7550,19 @@
         <v>193602</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>166905</v>
+        <v>167146</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>224095</v>
+        <v>222433</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1429997459170751</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1232801132002699</v>
+        <v>0.1234582407705048</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1655226974416931</v>
+        <v>0.1642948557472952</v>
       </c>
     </row>
     <row r="42">
@@ -7579,19 +7579,19 @@
         <v>96428</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>78352</v>
+        <v>76712</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>118420</v>
+        <v>117751</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1454880113482392</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1182163094776038</v>
+        <v>0.1157416985550308</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1786702356435947</v>
+        <v>0.1776595603424974</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>69</v>
@@ -7600,19 +7600,19 @@
         <v>77958</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>60013</v>
+        <v>61733</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>96608</v>
+        <v>95742</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1128067927900108</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.08684013363945285</v>
+        <v>0.08932836825482539</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1397941226928737</v>
+        <v>0.1385405372318144</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>156</v>
@@ -7621,19 +7621,19 @@
         <v>174386</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>149861</v>
+        <v>147800</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>204036</v>
+        <v>201781</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1288059763022722</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1106913243284017</v>
+        <v>0.109168978329653</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1507067261245889</v>
+        <v>0.1490409374503485</v>
       </c>
     </row>
     <row r="43">
@@ -7650,19 +7650,19 @@
         <v>28806</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>18193</v>
+        <v>18724</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>41978</v>
+        <v>43275</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04346137551494725</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02744962283553838</v>
+        <v>0.02824969421053939</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06333584712241599</v>
+        <v>0.06529268999026192</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>30</v>
@@ -7671,19 +7671,19 @@
         <v>30791</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>21709</v>
+        <v>21605</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>43848</v>
+        <v>43483</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04455556307386791</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03141275421316166</v>
+        <v>0.0312629390334772</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.06344939366970703</v>
+        <v>0.0629206743767154</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>55</v>
@@ -7692,19 +7692,19 @@
         <v>59597</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>44465</v>
+        <v>46331</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>75893</v>
+        <v>76691</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04401990044180252</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03284274262571413</v>
+        <v>0.03422115921251666</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.05605623398588904</v>
+        <v>0.05664604128503016</v>
       </c>
     </row>
     <row r="44">
@@ -7721,19 +7721,19 @@
         <v>69352</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>52154</v>
+        <v>54220</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>87649</v>
+        <v>86818</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1046372136504432</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.07868951737177812</v>
+        <v>0.08180521797581475</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1322422444686331</v>
+        <v>0.130989034143013</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>93</v>
@@ -7742,19 +7742,19 @@
         <v>106840</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>87913</v>
+        <v>86807</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>128458</v>
+        <v>127808</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1545989629015893</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1272115424397711</v>
+        <v>0.1256114706800467</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1858815294678211</v>
+        <v>0.1849406248502652</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>155</v>
@@ -7763,19 +7763,19 @@
         <v>176192</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>149783</v>
+        <v>152086</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>205225</v>
+        <v>201628</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1301400464313092</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1106335798058568</v>
+        <v>0.1123347297368717</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1515843883614697</v>
+        <v>0.1489275602008353</v>
       </c>
     </row>
     <row r="45">
@@ -7867,19 +7867,19 @@
         <v>174934</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>153221</v>
+        <v>150030</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>200454</v>
+        <v>199073</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2248308243065167</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1969244745807843</v>
+        <v>0.1928230729035621</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.257629931626485</v>
+        <v>0.2558555971110893</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>166</v>
@@ -7888,19 +7888,19 @@
         <v>179518</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>157715</v>
+        <v>153936</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>205224</v>
+        <v>205456</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2190450059213761</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1924414670032971</v>
+        <v>0.1878299716684122</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2504106723366576</v>
+        <v>0.2506941248996334</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>329</v>
@@ -7909,19 +7909,19 @@
         <v>354452</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>319015</v>
+        <v>319401</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>390336</v>
+        <v>393116</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2218628034921822</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1996816415201935</v>
+        <v>0.1999231355141913</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2443238392630711</v>
+        <v>0.2460641054852211</v>
       </c>
     </row>
     <row r="47">
@@ -7938,19 +7938,19 @@
         <v>182834</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>158001</v>
+        <v>160272</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>206761</v>
+        <v>209204</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.234984689370684</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2030685353603471</v>
+        <v>0.205987034732027</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2657357549281731</v>
+        <v>0.268875414480261</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>179</v>
@@ -7959,19 +7959,19 @@
         <v>196159</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>171204</v>
+        <v>170681</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>220418</v>
+        <v>223182</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2393502128415897</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2089007950634282</v>
+        <v>0.2082621104217276</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2689507708839589</v>
+        <v>0.2723223687296645</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>348</v>
@@ -7980,19 +7980,19 @@
         <v>378994</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>345566</v>
+        <v>347654</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>414238</v>
+        <v>416422</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2372241244280288</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2163009521020248</v>
+        <v>0.2176074898078622</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2592850156753939</v>
+        <v>0.2606518548451023</v>
       </c>
     </row>
     <row r="48">
@@ -8009,19 +8009,19 @@
         <v>196154</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>172011</v>
+        <v>170152</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>224006</v>
+        <v>223443</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2521042009607771</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2210745062856377</v>
+        <v>0.2186854107641206</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2878998369730766</v>
+        <v>0.2871762622087702</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>181</v>
@@ -8030,19 +8030,19 @@
         <v>192763</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>168832</v>
+        <v>168841</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>219514</v>
+        <v>219276</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2352067724027646</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2060057745919167</v>
+        <v>0.2060167943095698</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.26784742540817</v>
+        <v>0.2675570744211275</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>361</v>
@@ -8051,19 +8051,19 @@
         <v>388918</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>357232</v>
+        <v>353392</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>427315</v>
+        <v>423707</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2434361238919024</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.223602983127939</v>
+        <v>0.2211992391138151</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2674698419837568</v>
+        <v>0.265211810763101</v>
       </c>
     </row>
     <row r="49">
@@ -8080,19 +8080,19 @@
         <v>44485</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>33105</v>
+        <v>32610</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>58916</v>
+        <v>61163</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.05717349156199914</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.04254754298745513</v>
+        <v>0.04191168120644592</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.07572106814015196</v>
+        <v>0.07860921756703258</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>61</v>
@@ -8101,19 +8101,19 @@
         <v>67543</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>53253</v>
+        <v>51640</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>85633</v>
+        <v>83307</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.08241425337158022</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.06497893149057359</v>
+        <v>0.06300991676294888</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1044879934967063</v>
+        <v>0.1016495304609845</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>103</v>
@@ -8122,19 +8122,19 @@
         <v>112027</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>91400</v>
+        <v>92672</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>134874</v>
+        <v>133829</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.0701215485927721</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.05720987517960579</v>
+        <v>0.05800652002699255</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.08442194516877778</v>
+        <v>0.08376753046443372</v>
       </c>
     </row>
     <row r="50">
@@ -8151,19 +8151,19 @@
         <v>179661</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>158054</v>
+        <v>154875</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>206760</v>
+        <v>204845</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2309067938000232</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2031359569421637</v>
+        <v>0.1990510331503631</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.26573462549078</v>
+        <v>0.2632733881890681</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>167</v>
@@ -8172,19 +8172,19 @@
         <v>183566</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>159569</v>
+        <v>160660</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>210094</v>
+        <v>208956</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2239837554626894</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1947035400118554</v>
+        <v>0.1960344060981807</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2563531570097035</v>
+        <v>0.2549644900592136</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>329</v>
@@ -8193,19 +8193,19 @@
         <v>363227</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>330744</v>
+        <v>328539</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>398242</v>
+        <v>399314</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2273553995951145</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2070234555562381</v>
+        <v>0.2056429693565817</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2492724860235648</v>
+        <v>0.2499433556808306</v>
       </c>
     </row>
     <row r="51">
@@ -8297,19 +8297,19 @@
         <v>1352251</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>1296500</v>
+        <v>1289582</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>1416617</v>
+        <v>1415051</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.3950484872899524</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.3787614521509839</v>
+        <v>0.3767403825103117</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.4138525563155909</v>
+        <v>0.4133950313238805</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>1286</v>
@@ -8318,19 +8318,19 @@
         <v>1375770</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>1319712</v>
+        <v>1318692</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>1437854</v>
+        <v>1436518</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.3877492051367794</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.3719496387556123</v>
+        <v>0.3716621632765177</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.4052469312838786</v>
+        <v>0.4048704613354601</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>2546</v>
@@ -8339,19 +8339,19 @@
         <v>2728021</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>2637954</v>
+        <v>2644911</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>2813185</v>
+        <v>2808640</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.3913333545562593</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.3784132139848148</v>
+        <v>0.3794112585763247</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.4035500082841575</v>
+        <v>0.4028980435323502</v>
       </c>
     </row>
     <row r="53">
@@ -8368,19 +8368,19 @@
         <v>741716</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>692685</v>
+        <v>685694</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>793479</v>
+        <v>790414</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.2166860096273522</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2023618802815366</v>
+        <v>0.2003197171254817</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2318082253143794</v>
+        <v>0.2309127093930782</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>598</v>
@@ -8389,19 +8389,19 @@
         <v>643108</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>592631</v>
+        <v>598449</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>688231</v>
+        <v>691366</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1812545166429024</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1670280723331778</v>
+        <v>0.16866784218584</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1939721457742158</v>
+        <v>0.1948557921654913</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1292</v>
@@ -8410,19 +8410,19 @@
         <v>1384824</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1318568</v>
+        <v>1315025</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1460924</v>
+        <v>1457940</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1986523596563174</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1891479252216869</v>
+        <v>0.1886397814858395</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2095688252200649</v>
+        <v>0.2091407755678175</v>
       </c>
     </row>
     <row r="54">
@@ -8439,19 +8439,19 @@
         <v>589796</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>543379</v>
+        <v>546323</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>631993</v>
+        <v>636934</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1723038803388759</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1587436114382832</v>
+        <v>0.1596034848921251</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.1846313249924122</v>
+        <v>0.1860747370585906</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>532</v>
@@ -8460,19 +8460,19 @@
         <v>576036</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>532876</v>
+        <v>528979</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>623740</v>
+        <v>618554</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1623507646648945</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1501864809079259</v>
+        <v>0.1490881975609133</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1757957956220968</v>
+        <v>0.1743343080798168</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1091</v>
@@ -8481,19 +8481,19 @@
         <v>1165832</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1102432</v>
+        <v>1098534</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1229193</v>
+        <v>1229377</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1672380197423559</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1581433216180383</v>
+        <v>0.1575842334143379</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1763271325650346</v>
+        <v>0.1763535644577477</v>
       </c>
     </row>
     <row r="55">
@@ -8510,19 +8510,19 @@
         <v>154743</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>132180</v>
+        <v>129117</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>181565</v>
+        <v>180710</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.04520670416428029</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.0386151507981289</v>
+        <v>0.03772034504131692</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.05304278994230859</v>
+        <v>0.05279302683753777</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>212</v>
@@ -8531,19 +8531,19 @@
         <v>228188</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>199911</v>
+        <v>197981</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>261579</v>
+        <v>260491</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.06431275327075617</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.05634310553799909</v>
+        <v>0.05579929979577038</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.0737237200690485</v>
+        <v>0.07341714954747838</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>359</v>
@@ -8552,19 +8552,19 @@
         <v>382930</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>344614</v>
+        <v>343192</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>422826</v>
+        <v>422850</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.05493115472770435</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.04943477662780306</v>
+        <v>0.04923079047578136</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.06065420922324957</v>
+        <v>0.0606576296398654</v>
       </c>
     </row>
     <row r="56">
@@ -8581,19 +8581,19 @@
         <v>584494</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>541265</v>
+        <v>536095</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>630875</v>
+        <v>629634</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1707549185795392</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1581259703668617</v>
+        <v>0.156615660177506</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1843046626387098</v>
+        <v>0.1839423105144254</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>662</v>
@@ -8602,19 +8602,19 @@
         <v>724992</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>679417</v>
+        <v>675136</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>778183</v>
+        <v>775221</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2043327602846676</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1914879061304608</v>
+        <v>0.1902813492192917</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.219324334697533</v>
+        <v>0.2184894489264057</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1207</v>
@@ -8623,19 +8623,19 @@
         <v>1309486</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1233158</v>
+        <v>1246181</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1375794</v>
+        <v>1377862</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.187845111317363</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1768959956919973</v>
+        <v>0.1787641442115395</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1973570176180677</v>
+        <v>0.1976536194722842</v>
       </c>
     </row>
     <row r="57">
@@ -8971,19 +8971,19 @@
         <v>149716</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>132375</v>
+        <v>131405</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>167493</v>
+        <v>166645</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.509650828734755</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4506227881129661</v>
+        <v>0.4473186994242196</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5701686138281231</v>
+        <v>0.5672825819635946</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>139</v>
@@ -8992,19 +8992,19 @@
         <v>146298</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>130155</v>
+        <v>129497</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>163246</v>
+        <v>162704</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5112160122721934</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4548066154465807</v>
+        <v>0.4525079512982451</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5704389265735947</v>
+        <v>0.5685435588087187</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>273</v>
@@ -9013,19 +9013,19 @@
         <v>296013</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>270819</v>
+        <v>271575</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>320784</v>
+        <v>320824</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5104231850474851</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4669808180933681</v>
+        <v>0.4682833536432972</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5531358416247355</v>
+        <v>0.5532051557314221</v>
       </c>
     </row>
     <row r="5">
@@ -9042,19 +9042,19 @@
         <v>49946</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37782</v>
+        <v>37375</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>63569</v>
+        <v>63808</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1700222434322731</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1286137581475151</v>
+        <v>0.1272286104313422</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2163966389582879</v>
+        <v>0.2172091374933494</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>46</v>
@@ -9063,19 +9063,19 @@
         <v>48395</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37404</v>
+        <v>37232</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>61221</v>
+        <v>62273</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1691090030942347</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1307016109995644</v>
+        <v>0.1301000410714619</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2139284264243126</v>
+        <v>0.2176033204063721</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>93</v>
@@ -9084,19 +9084,19 @@
         <v>98341</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>80753</v>
+        <v>79745</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>116169</v>
+        <v>118148</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1695715953624127</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1392451475067805</v>
+        <v>0.137506386533124</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2003128881620768</v>
+        <v>0.2037262694893871</v>
       </c>
     </row>
     <row r="6">
@@ -9113,19 +9113,19 @@
         <v>34241</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24573</v>
+        <v>23835</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46844</v>
+        <v>48182</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1165603453630635</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0836510027051878</v>
+        <v>0.08113762648513669</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1594643287791535</v>
+        <v>0.164016292698343</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -9134,19 +9134,19 @@
         <v>21040</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13051</v>
+        <v>13381</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30709</v>
+        <v>30800</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07351991770397159</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04560440183097011</v>
+        <v>0.04675919056093026</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1073097166229156</v>
+        <v>0.1076255841638265</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>53</v>
@@ -9155,19 +9155,19 @@
         <v>55281</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>43360</v>
+        <v>42251</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>72439</v>
+        <v>71147</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09532159271204173</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07476688773993281</v>
+        <v>0.07285506134530345</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1249077585804599</v>
+        <v>0.1226812475694319</v>
       </c>
     </row>
     <row r="7">
@@ -9184,19 +9184,19 @@
         <v>15637</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9068</v>
+        <v>9070</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24487</v>
+        <v>25557</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05323113501916227</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03086936785665012</v>
+        <v>0.03087459037757184</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08335816748479714</v>
+        <v>0.08700054662512953</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -9205,19 +9205,19 @@
         <v>5915</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2749</v>
+        <v>2828</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11906</v>
+        <v>12940</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0206692983759286</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00960515928135666</v>
+        <v>0.009882530205498556</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04160504904587019</v>
+        <v>0.04521547229602473</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -9226,19 +9226,19 @@
         <v>21552</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13565</v>
+        <v>13926</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33212</v>
+        <v>33612</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03716315354355238</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02339117956210195</v>
+        <v>0.02401360926826076</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05726779440208522</v>
+        <v>0.05795842516748776</v>
       </c>
     </row>
     <row r="8">
@@ -9255,19 +9255,19 @@
         <v>44221</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>31700</v>
+        <v>32455</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>57060</v>
+        <v>57491</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1505354474507462</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1079119611428733</v>
+        <v>0.1104813869441682</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.194240039275309</v>
+        <v>0.195708365216119</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>62</v>
@@ -9276,19 +9276,19 @@
         <v>64529</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>51108</v>
+        <v>51702</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>79739</v>
+        <v>78741</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2254857685536718</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.17858850095336</v>
+        <v>0.1806665398244567</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2786345083090302</v>
+        <v>0.2751495740879407</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>101</v>
@@ -9297,19 +9297,19 @@
         <v>108750</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>90688</v>
+        <v>87853</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>130166</v>
+        <v>128638</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1875204733345081</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1563752585177852</v>
+        <v>0.1514863344205369</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2244480223538593</v>
+        <v>0.2218143755778968</v>
       </c>
     </row>
     <row r="9">
@@ -9401,19 +9401,19 @@
         <v>126522</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>106975</v>
+        <v>106196</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>145324</v>
+        <v>148573</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2527888625407582</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2137346674468337</v>
+        <v>0.2121774901530916</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2903553277084696</v>
+        <v>0.2968464881497302</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>110</v>
@@ -9422,19 +9422,19 @@
         <v>122793</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>103701</v>
+        <v>102944</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>142244</v>
+        <v>145278</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2352612191540431</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.19868334098658</v>
+        <v>0.1972335931098992</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2725284455519142</v>
+        <v>0.2783409503353019</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>229</v>
@@ -9443,19 +9443,19 @@
         <v>249315</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>224654</v>
+        <v>219876</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>279467</v>
+        <v>278098</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2438412881297793</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2197223034691216</v>
+        <v>0.2150484923285208</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.273331655016846</v>
+        <v>0.2719926537376396</v>
       </c>
     </row>
     <row r="11">
@@ -9472,19 +9472,19 @@
         <v>237020</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>214993</v>
+        <v>211174</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>259842</v>
+        <v>256253</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4735619554890666</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4295530406974388</v>
+        <v>0.4219220234696248</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5191597536190287</v>
+        <v>0.5119894922739149</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>211</v>
@@ -9493,19 +9493,19 @@
         <v>230043</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>207110</v>
+        <v>207974</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>252889</v>
+        <v>251964</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.440745213649502</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3968065733785819</v>
+        <v>0.3984626787504982</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4845152565744925</v>
+        <v>0.4827440847203769</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>434</v>
@@ -9514,19 +9514,19 @@
         <v>467064</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>436587</v>
+        <v>433612</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>503007</v>
+        <v>500221</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4568095471329072</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.427002504428865</v>
+        <v>0.4240920106205255</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4919637946748506</v>
+        <v>0.4892386509520675</v>
       </c>
     </row>
     <row r="12">
@@ -9543,19 +9543,19 @@
         <v>88357</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>72359</v>
+        <v>73483</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>107462</v>
+        <v>106891</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1765350013708011</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1445711892917118</v>
+        <v>0.1468186523995191</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2147062848620045</v>
+        <v>0.2135665349147267</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>90</v>
@@ -9564,19 +9564,19 @@
         <v>94363</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>76492</v>
+        <v>77834</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>114082</v>
+        <v>112016</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1807926984626077</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1465526313390628</v>
+        <v>0.1491231226511181</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.218572956048262</v>
+        <v>0.2146144150789561</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>174</v>
@@ -9585,19 +9585,19 @@
         <v>182720</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>159224</v>
+        <v>161376</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>206375</v>
+        <v>209219</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1787084858893886</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1557280370275057</v>
+        <v>0.1578328461466225</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2018439818631586</v>
+        <v>0.2046257114066281</v>
       </c>
     </row>
     <row r="13">
@@ -9614,19 +9614,19 @@
         <v>12472</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6011</v>
+        <v>6700</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20219</v>
+        <v>22193</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02491953098333787</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01201012867792427</v>
+        <v>0.01338604212641631</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0403976627359607</v>
+        <v>0.04434082779238908</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -9635,19 +9635,19 @@
         <v>12567</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7080</v>
+        <v>6443</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22181</v>
+        <v>21077</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02407698033830472</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01356553920962785</v>
+        <v>0.01234491289453388</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04249740832524738</v>
+        <v>0.04038173968428453</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -9656,19 +9656,19 @@
         <v>25039</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16514</v>
+        <v>16724</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36726</v>
+        <v>37340</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02448942270094514</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01615151305238305</v>
+        <v>0.01635691996070944</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03591933646062778</v>
+        <v>0.0365203627600913</v>
       </c>
     </row>
     <row r="14">
@@ -9685,19 +9685,19 @@
         <v>36134</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25466</v>
+        <v>24904</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49016</v>
+        <v>49250</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07219464961603621</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05088026969607186</v>
+        <v>0.04975805841093039</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09793305837362823</v>
+        <v>0.09840099926478391</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>60</v>
@@ -9706,19 +9706,19 @@
         <v>62176</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48624</v>
+        <v>47666</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>79397</v>
+        <v>76679</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1191238883955424</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09315930896547611</v>
+        <v>0.09132500434912427</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1521177094423519</v>
+        <v>0.1469100251544151</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>95</v>
@@ -9727,19 +9727,19 @@
         <v>98310</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>79990</v>
+        <v>78335</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>118521</v>
+        <v>117063</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09615125614697971</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07823394475402184</v>
+        <v>0.07661549112245604</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1159191000378526</v>
+        <v>0.1144925313639726</v>
       </c>
     </row>
     <row r="15">
@@ -9831,19 +9831,19 @@
         <v>4285</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1648</v>
+        <v>1588</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9646</v>
+        <v>9611</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01349117284436247</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005187754465590474</v>
+        <v>0.005000501057244855</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03037257478189503</v>
+        <v>0.03026180948093028</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -9852,19 +9852,19 @@
         <v>13717</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7627</v>
+        <v>7878</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23288</v>
+        <v>21959</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0408979214719518</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02273956828829583</v>
+        <v>0.02348748554514221</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06943174301277966</v>
+        <v>0.0654692028766508</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -9873,19 +9873,19 @@
         <v>18002</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11501</v>
+        <v>10863</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28318</v>
+        <v>27103</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0275682046099629</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01761256411081581</v>
+        <v>0.01663543701362622</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04336489156926903</v>
+        <v>0.0415046147897663</v>
       </c>
     </row>
     <row r="17">
@@ -9902,19 +9902,19 @@
         <v>99539</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>83566</v>
+        <v>84796</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>114972</v>
+        <v>116989</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3134085684836904</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2631174278062614</v>
+        <v>0.266988456217978</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3620029182152133</v>
+        <v>0.3683510718045259</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>117</v>
@@ -9923,19 +9923,19 @@
         <v>122602</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>104781</v>
+        <v>104611</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>139995</v>
+        <v>140704</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3655317179121361</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3123998962387778</v>
+        <v>0.3118930480559837</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4173896705996207</v>
+        <v>0.4195012912026458</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>225</v>
@@ -9944,19 +9944,19 @@
         <v>222141</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>198670</v>
+        <v>198325</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>247339</v>
+        <v>247107</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3401807785038436</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3042372502091465</v>
+        <v>0.3037100638221043</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3787687929153234</v>
+        <v>0.3784132072770735</v>
       </c>
     </row>
     <row r="18">
@@ -9973,19 +9973,19 @@
         <v>153435</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>137120</v>
+        <v>135200</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>169755</v>
+        <v>170751</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4831055043042316</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4317351286592787</v>
+        <v>0.4256921324644944</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.534491420990971</v>
+        <v>0.5376288069619044</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>129</v>
@@ -9994,19 +9994,19 @@
         <v>125911</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>110803</v>
+        <v>107419</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>144760</v>
+        <v>142547</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3753965235496722</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3303545920701863</v>
+        <v>0.3202647368421438</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4315963833457697</v>
+        <v>0.4249970883817525</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>286</v>
@@ -10015,19 +10015,19 @@
         <v>279346</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>254581</v>
+        <v>251581</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>303741</v>
+        <v>303848</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4277825338882497</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.389857942196879</v>
+        <v>0.3852638950034423</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4651409219544231</v>
+        <v>0.4653040426865537</v>
       </c>
     </row>
     <row r="19">
@@ -10044,19 +10044,19 @@
         <v>27651</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19270</v>
+        <v>18759</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37488</v>
+        <v>38791</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08706214995538673</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06067442926546313</v>
+        <v>0.0590661206750431</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1180362982160637</v>
+        <v>0.1221388047287398</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -10065,19 +10065,19 @@
         <v>20619</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13161</v>
+        <v>13261</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30536</v>
+        <v>30348</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06147527775560268</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03923846448473717</v>
+        <v>0.03953763744712432</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09104040553517066</v>
+        <v>0.09048242575384036</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>51</v>
@@ -10086,19 +10086,19 @@
         <v>48270</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>37240</v>
+        <v>37081</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>63495</v>
+        <v>62221</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07391986818993382</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0570286784748591</v>
+        <v>0.05678526274249567</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09723524155151421</v>
+        <v>0.09528418539630185</v>
       </c>
     </row>
     <row r="20">
@@ -10115,19 +10115,19 @@
         <v>32691</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23469</v>
+        <v>23345</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>45929</v>
+        <v>45897</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1029326044123288</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0738933197835669</v>
+        <v>0.07350443800798656</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1446135139022305</v>
+        <v>0.144512845375893</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>51</v>
@@ -10136,19 +10136,19 @@
         <v>52558</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>39116</v>
+        <v>40645</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>66200</v>
+        <v>68800</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1566985593106373</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1166229371176149</v>
+        <v>0.121180244513447</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1973732450715219</v>
+        <v>0.2051240447646611</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>85</v>
@@ -10157,19 +10157,19 @@
         <v>85249</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>69112</v>
+        <v>68894</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>103896</v>
+        <v>103707</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.13054861480801</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1058362029641069</v>
+        <v>0.1055017716536577</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1591041838801766</v>
+        <v>0.1588144948629092</v>
       </c>
     </row>
     <row r="21">
@@ -10261,19 +10261,19 @@
         <v>240639</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>222767</v>
+        <v>222540</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>257048</v>
+        <v>260235</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6521429825673734</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6037068858288427</v>
+        <v>0.6030926995474531</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6966095645274216</v>
+        <v>0.7052479616715581</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>227</v>
@@ -10282,19 +10282,19 @@
         <v>247958</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>227448</v>
+        <v>228236</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>266541</v>
+        <v>267000</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6402492676754076</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5872911636919249</v>
+        <v>0.5893265242780228</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6882333616889501</v>
+        <v>0.6894189910629567</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>458</v>
@@ -10303,19 +10303,19 @@
         <v>488597</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>461019</v>
+        <v>461026</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>514486</v>
+        <v>513565</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6460523444353432</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6095870451572474</v>
+        <v>0.6095959143557343</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6802844464216234</v>
+        <v>0.679066134164759</v>
       </c>
     </row>
     <row r="23">
@@ -10332,19 +10332,19 @@
         <v>65221</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>51352</v>
+        <v>50954</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>82614</v>
+        <v>82053</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1767519149504509</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1391658264756827</v>
+        <v>0.1380868750557339</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2238876816974874</v>
+        <v>0.2223668647893413</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>34</v>
@@ -10353,19 +10353,19 @@
         <v>35176</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>24647</v>
+        <v>25101</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>47566</v>
+        <v>48723</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0908274027064061</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06364195971693762</v>
+        <v>0.06481301521894914</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1228210042722743</v>
+        <v>0.1258065480169718</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>94</v>
@@ -10374,19 +10374,19 @@
         <v>100397</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>82208</v>
+        <v>81983</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>120067</v>
+        <v>120649</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1327509349788206</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1087002718329252</v>
+        <v>0.1084024570015355</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1587591418833696</v>
+        <v>0.159528774636486</v>
       </c>
     </row>
     <row r="24">
@@ -10403,19 +10403,19 @@
         <v>25848</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16886</v>
+        <v>16708</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>36657</v>
+        <v>37113</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07004917075065696</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04576289003417584</v>
+        <v>0.04528015371186844</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09934335679619147</v>
+        <v>0.1005764725399589</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>25</v>
@@ -10424,19 +10424,19 @@
         <v>26350</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17014</v>
+        <v>17381</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>38125</v>
+        <v>37615</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06803768497366772</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04393282234673992</v>
+        <v>0.04488050114648507</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0984418941912991</v>
+        <v>0.09712522072144177</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>50</v>
@@ -10445,19 +10445,19 @@
         <v>52198</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>39326</v>
+        <v>37406</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>66822</v>
+        <v>68136</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06901911142212516</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05199901889884413</v>
+        <v>0.04946036986533972</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08835613664532976</v>
+        <v>0.09009376591193197</v>
       </c>
     </row>
     <row r="25">
@@ -10474,19 +10474,19 @@
         <v>6342</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2708</v>
+        <v>2759</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12122</v>
+        <v>12580</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01718645957637881</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007339893886175894</v>
+        <v>0.007478258534000593</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03285019244040435</v>
+        <v>0.03409154018002134</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -10495,19 +10495,19 @@
         <v>15754</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9385</v>
+        <v>9165</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26740</v>
+        <v>25294</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04067736763403931</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0242341403828704</v>
+        <v>0.02366445140235552</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06904533832386771</v>
+        <v>0.065310359916557</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>22</v>
@@ -10516,19 +10516,19 @@
         <v>22095</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14242</v>
+        <v>14370</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>32928</v>
+        <v>32057</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02921589038681867</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01883121788010212</v>
+        <v>0.01900122475372516</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04353990957921542</v>
+        <v>0.04238720312595316</v>
       </c>
     </row>
     <row r="26">
@@ -10545,19 +10545,19 @@
         <v>30948</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>21760</v>
+        <v>21783</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>43579</v>
+        <v>42932</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08386947215514</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05897127900564451</v>
+        <v>0.05903289334454438</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1181011750657175</v>
+        <v>0.1163462665832851</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>57</v>
@@ -10566,19 +10566,19 @@
         <v>62046</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48191</v>
+        <v>47848</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>78655</v>
+        <v>77038</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1602082770104793</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1244324017281568</v>
+        <v>0.1235477593385255</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2030934156108223</v>
+        <v>0.1989190441792232</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>87</v>
@@ -10587,19 +10587,19 @@
         <v>92994</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>77000</v>
+        <v>74322</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>114045</v>
+        <v>112105</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1229617187768924</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1018133938582129</v>
+        <v>0.09827283743742488</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1507973439649501</v>
+        <v>0.1482314902363533</v>
       </c>
     </row>
     <row r="27">
@@ -10691,19 +10691,19 @@
         <v>58971</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>47589</v>
+        <v>45946</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>73641</v>
+        <v>71640</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2791931183805796</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2253062975872473</v>
+        <v>0.2175249874226385</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3486460615644758</v>
+        <v>0.3391713268909425</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>89</v>
@@ -10712,19 +10712,19 @@
         <v>88542</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>75802</v>
+        <v>74667</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>103288</v>
+        <v>102961</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4068929888914536</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3483436282391021</v>
+        <v>0.3431279537996283</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.474655691632009</v>
+        <v>0.4731554555455528</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>148</v>
@@ -10733,19 +10733,19 @@
         <v>147514</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>129629</v>
+        <v>127307</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>169550</v>
+        <v>165500</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3439937981614925</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3022883945088429</v>
+        <v>0.2968721438458482</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3953801928202931</v>
+        <v>0.3859355973892714</v>
       </c>
     </row>
     <row r="29">
@@ -10762,19 +10762,19 @@
         <v>101826</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>85091</v>
+        <v>88047</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>115454</v>
+        <v>117605</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4820843830542404</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4028517087021788</v>
+        <v>0.4168486993898867</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5466023713928027</v>
+        <v>0.5567850813596157</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>82</v>
@@ -10783,19 +10783,19 @@
         <v>78598</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>64147</v>
+        <v>65492</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>91489</v>
+        <v>94721</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3611950351590109</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2947872690204462</v>
+        <v>0.3009678239302694</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4204330331331488</v>
+        <v>0.435287674247931</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>183</v>
@@ -10804,19 +10804,19 @@
         <v>180425</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>158131</v>
+        <v>160359</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>199552</v>
+        <v>199512</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4207396699347773</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3687534864849032</v>
+        <v>0.3739469118295228</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4653441102485691</v>
+        <v>0.4652500797560603</v>
       </c>
     </row>
     <row r="30">
@@ -10833,19 +10833,19 @@
         <v>34748</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>25649</v>
+        <v>24616</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>46661</v>
+        <v>46165</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.164512098710306</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.121434416132243</v>
+        <v>0.1165410009452656</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2209093799548319</v>
+        <v>0.2185625874140064</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>42</v>
@@ -10854,19 +10854,19 @@
         <v>40826</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>30017</v>
+        <v>30877</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>52657</v>
+        <v>52346</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1876127600989331</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1379428985239645</v>
+        <v>0.1418918016063669</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2419840872586692</v>
+        <v>0.2405528328381154</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>77</v>
@@ -10875,19 +10875,19 @@
         <v>75574</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>61846</v>
+        <v>61288</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>92990</v>
+        <v>92257</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.176234417263826</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1442206864677307</v>
+        <v>0.1429202533568427</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.216846891098</v>
+        <v>0.2151386736361881</v>
       </c>
     </row>
     <row r="31">
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6744</v>
+        <v>6608</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.009061054620806018</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0319294846284724</v>
+        <v>0.03128692622049607</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -10928,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>7188</v>
+        <v>7835</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01029275850540115</v>
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0330342720783236</v>
+        <v>0.03600568569086082</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -10946,19 +10946,19 @@
         <v>4154</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1180</v>
+        <v>962</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>10965</v>
+        <v>9780</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.009686076781684086</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.002752098718577103</v>
+        <v>0.002243595532133029</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02556960574553571</v>
+        <v>0.02280587879952718</v>
       </c>
     </row>
     <row r="32">
@@ -10975,19 +10975,19 @@
         <v>13761</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8106</v>
+        <v>8128</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>21777</v>
+        <v>22125</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06514934523406797</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03837853948528989</v>
+        <v>0.03848246446306811</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1030986505049029</v>
+        <v>0.1047502620748193</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -10996,19 +10996,19 @@
         <v>7400</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3122</v>
+        <v>3090</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13985</v>
+        <v>14829</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03400645734520126</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01434902539507539</v>
+        <v>0.01419833073783599</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06426666630398262</v>
+        <v>0.06814751743695373</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>22</v>
@@ -11017,19 +11017,19 @@
         <v>21161</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>13886</v>
+        <v>13248</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>30641</v>
+        <v>31326</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04934603785822003</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03238094879814872</v>
+        <v>0.03089301549538129</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07145296583780043</v>
+        <v>0.07305056131170794</v>
       </c>
     </row>
     <row r="33">
@@ -11121,19 +11121,19 @@
         <v>39052</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>28619</v>
+        <v>28465</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>51799</v>
+        <v>52363</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1494965720796526</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1095588042834799</v>
+        <v>0.1089692671604866</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1982934177283512</v>
+        <v>0.2004502958201692</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>31</v>
@@ -11142,19 +11142,19 @@
         <v>30532</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>21068</v>
+        <v>22369</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>42150</v>
+        <v>42045</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1126528554157012</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07773424621404604</v>
+        <v>0.08253393782304284</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1555190726858334</v>
+        <v>0.1551319460133995</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>69</v>
@@ -11163,19 +11163,19 @@
         <v>69584</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>55500</v>
+        <v>54090</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>84854</v>
+        <v>86107</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1307354688984669</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1042735133520444</v>
+        <v>0.1016246731256278</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1594244814085315</v>
+        <v>0.161778243401912</v>
       </c>
     </row>
     <row r="35">
@@ -11192,19 +11192,19 @@
         <v>91663</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>77411</v>
+        <v>77043</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>108921</v>
+        <v>108448</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3508986336222417</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2963392124583526</v>
+        <v>0.2949307806692476</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4169632964026417</v>
+        <v>0.4151512400715432</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>78</v>
@@ -11213,19 +11213,19 @@
         <v>80372</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>66274</v>
+        <v>66280</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>96052</v>
+        <v>95207</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2965474364798216</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2445274221404027</v>
+        <v>0.2445525860773212</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3543989878872946</v>
+        <v>0.35128405398833</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>168</v>
@@ -11234,19 +11234,19 @@
         <v>172036</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>150623</v>
+        <v>147909</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>193654</v>
+        <v>193181</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3232225870683502</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2829917303913038</v>
+        <v>0.2778931352950504</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3638384855575501</v>
+        <v>0.3629506390076884</v>
       </c>
     </row>
     <row r="36">
@@ -11263,19 +11263,19 @@
         <v>77866</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>63148</v>
+        <v>62310</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>91933</v>
+        <v>92859</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.298079686488466</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2417373171601713</v>
+        <v>0.2385318133765621</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.351929830071775</v>
+        <v>0.3554768291357331</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>83</v>
@@ -11284,19 +11284,19 @@
         <v>83440</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>69646</v>
+        <v>67153</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>99627</v>
+        <v>98952</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3078668896179977</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2569708545635951</v>
+        <v>0.2477710057969822</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3675908259847251</v>
+        <v>0.3650992657937877</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>159</v>
@@ -11305,19 +11305,19 @@
         <v>161306</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>139028</v>
+        <v>140691</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>183376</v>
+        <v>183382</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3030634054070306</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2612079832834958</v>
+        <v>0.2643322636427703</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3445279313743045</v>
+        <v>0.344539277315247</v>
       </c>
     </row>
     <row r="37">
@@ -11334,19 +11334,19 @@
         <v>8813</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3701</v>
+        <v>4371</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>16747</v>
+        <v>18460</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03373712507163842</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01416651899225807</v>
+        <v>0.01673160455401422</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06410819435355886</v>
+        <v>0.07066702020569854</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>9</v>
@@ -11355,19 +11355,19 @@
         <v>8672</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3929</v>
+        <v>3900</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>15808</v>
+        <v>16254</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03199659869816478</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01449798711484559</v>
+        <v>0.01438821728619224</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05832709154342636</v>
+        <v>0.05997311858560318</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>17</v>
@@ -11376,19 +11376,19 @@
         <v>17485</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10819</v>
+        <v>10476</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>27357</v>
+        <v>28105</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03285083568937685</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02032738463110702</v>
+        <v>0.01968239799119012</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05139800907389335</v>
+        <v>0.05280420579904308</v>
       </c>
     </row>
     <row r="38">
@@ -11405,19 +11405,19 @@
         <v>43830</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>33198</v>
+        <v>32730</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>57852</v>
+        <v>55504</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1677879827380013</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1270844931431598</v>
+        <v>0.1252952257090895</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2214632716796191</v>
+        <v>0.2124766090595966</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>60</v>
@@ -11426,19 +11426,19 @@
         <v>68010</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>55051</v>
+        <v>53543</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>84376</v>
+        <v>83482</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2509362197883148</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2031194947208117</v>
+        <v>0.1975562357523502</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3113209266398575</v>
+        <v>0.3080227072848853</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>105</v>
@@ -11447,19 +11447,19 @@
         <v>111841</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>94539</v>
+        <v>93808</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>131191</v>
+        <v>132351</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2101277029367754</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.177620651408826</v>
+        <v>0.1762476085989632</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2464826764857144</v>
+        <v>0.2486615372815763</v>
       </c>
     </row>
     <row r="39">
@@ -11551,19 +11551,19 @@
         <v>50361</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>37277</v>
+        <v>37351</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>65366</v>
+        <v>65568</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.07759157160466504</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05743232681392864</v>
+        <v>0.05754676977691106</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1007100350936693</v>
+        <v>0.1010211866277485</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>36</v>
@@ -11572,19 +11572,19 @@
         <v>41149</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>29775</v>
+        <v>29468</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>54434</v>
+        <v>55352</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.05994513802302973</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.04337565118154896</v>
+        <v>0.04292923635909379</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.07930001037550001</v>
+        <v>0.08063614203914281</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>81</v>
@@ -11593,19 +11593,19 @@
         <v>91510</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>72388</v>
+        <v>72471</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>111673</v>
+        <v>112110</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.06852136473972743</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.05420334913122386</v>
+        <v>0.05426557686467927</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08361942965993482</v>
+        <v>0.08394658243708548</v>
       </c>
     </row>
     <row r="41">
@@ -11622,19 +11622,19 @@
         <v>178401</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>155321</v>
+        <v>152566</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>203496</v>
+        <v>200486</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2748634916717906</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2393042851019688</v>
+        <v>0.2350594437249524</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3135268343817313</v>
+        <v>0.3088893723491459</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>178</v>
@@ -11643,19 +11643,19 @@
         <v>184912</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>163811</v>
+        <v>161523</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>211403</v>
+        <v>208446</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2693789797568703</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2386388518135698</v>
+        <v>0.2353058687550988</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3079721200319595</v>
+        <v>0.3036629733329789</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>333</v>
@@ -11664,19 +11664,19 @@
         <v>363313</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>328223</v>
+        <v>332275</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>396754</v>
+        <v>398167</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2720444711942867</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2457693972599134</v>
+        <v>0.2488037497439776</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2970847971505178</v>
+        <v>0.2981432316975004</v>
       </c>
     </row>
     <row r="42">
@@ -11693,19 +11693,19 @@
         <v>177550</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>156092</v>
+        <v>153630</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>203954</v>
+        <v>200988</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2735522634586433</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2404923402321409</v>
+        <v>0.2366989471269712</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.314232759548046</v>
+        <v>0.3096633872185876</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>160</v>
@@ -11714,19 +11714,19 @@
         <v>167230</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>145586</v>
+        <v>145069</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>189952</v>
+        <v>191769</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2436200459750041</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2120889353388465</v>
+        <v>0.2113367391067897</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2767219885502977</v>
+        <v>0.2793684444564966</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>313</v>
@@ -11735,19 +11735,19 @@
         <v>344780</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>312766</v>
+        <v>310428</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>379528</v>
+        <v>380155</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2581672054384522</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2341956474171219</v>
+        <v>0.2324450584789632</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2841864266929672</v>
+        <v>0.2846557177577352</v>
       </c>
     </row>
     <row r="43">
@@ -11764,19 +11764,19 @@
         <v>49194</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>35429</v>
+        <v>37122</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>65491</v>
+        <v>65792</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.07579280596372173</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.054586124907567</v>
+        <v>0.05719432660353435</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1009018444067419</v>
+        <v>0.1013659964088912</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>49</v>
@@ -11785,19 +11785,19 @@
         <v>54309</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>40091</v>
+        <v>41612</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>69727</v>
+        <v>70748</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.07911686469614097</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.05840481662393573</v>
+        <v>0.06061963913414911</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1015781713569853</v>
+        <v>0.1030652688341966</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>92</v>
@@ -11806,19 +11806,19 @@
         <v>103502</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>83555</v>
+        <v>84732</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>125965</v>
+        <v>128303</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.07750136085073425</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.06256494738911082</v>
+        <v>0.06344618364314779</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.09432133443425042</v>
+        <v>0.09607219386639061</v>
       </c>
     </row>
     <row r="44">
@@ -11835,19 +11835,19 @@
         <v>193548</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>169754</v>
+        <v>170296</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>219298</v>
+        <v>218257</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2981998673011793</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2615410437826836</v>
+        <v>0.262376359914978</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3378737502956062</v>
+        <v>0.3362692326594979</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>219</v>
@@ -11856,19 +11856,19 @@
         <v>238838</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>212596</v>
+        <v>210714</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>263925</v>
+        <v>264809</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3479389715489549</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3097097857518761</v>
+        <v>0.3069675133879194</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.38448502590383</v>
+        <v>0.3857734112099339</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>396</v>
@@ -11877,19 +11877,19 @@
         <v>432386</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>397855</v>
+        <v>395334</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>472523</v>
+        <v>467619</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3237655977767995</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.297909173694856</v>
+        <v>0.2960217729608645</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3538197706713315</v>
+        <v>0.3501481003175148</v>
       </c>
     </row>
     <row r="45">
@@ -11981,19 +11981,19 @@
         <v>158200</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>136668</v>
+        <v>137372</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>182646</v>
+        <v>184508</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2034160605447388</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1757303582696821</v>
+        <v>0.1766347128859539</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2348491300847946</v>
+        <v>0.2372436708104657</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>128</v>
@@ -12002,19 +12002,19 @@
         <v>145519</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>123019</v>
+        <v>123371</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>170008</v>
+        <v>168352</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1761376646863729</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.148903767257408</v>
+        <v>0.1493291848334897</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2057786937670233</v>
+        <v>0.203774471322139</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>275</v>
@@ -12023,19 +12023,19 @@
         <v>303719</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>272582</v>
+        <v>271547</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>337518</v>
+        <v>338085</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1893648446706016</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1699515142172981</v>
+        <v>0.1693060607667725</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2104383378476721</v>
+        <v>0.2107914132773447</v>
       </c>
     </row>
     <row r="47">
@@ -12052,19 +12052,19 @@
         <v>275551</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>246969</v>
+        <v>246459</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>300310</v>
+        <v>302067</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3543083035869041</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3175567289674705</v>
+        <v>0.31690099509075</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3861436864638519</v>
+        <v>0.3884031157367833</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>263</v>
@@ -12073,19 +12073,19 @@
         <v>284900</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>255931</v>
+        <v>256287</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>311258</v>
+        <v>311612</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3448452370278278</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.3097811993950164</v>
+        <v>0.310211661618329</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3767492971055023</v>
+        <v>0.3771780513814151</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>529</v>
@@ -12094,19 +12094,19 @@
         <v>560451</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>522919</v>
+        <v>520521</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>603252</v>
+        <v>598576</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3494338383968211</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.3260328245614041</v>
+        <v>0.3245381082546161</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3761197865854929</v>
+        <v>0.373204334538615</v>
       </c>
     </row>
     <row r="48">
@@ -12123,19 +12123,19 @@
         <v>179906</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>157923</v>
+        <v>158016</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>203481</v>
+        <v>203584</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2313261481336706</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2030604913178447</v>
+        <v>0.2031800987625505</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2616397251171563</v>
+        <v>0.2617719811714307</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>137</v>
@@ -12144,19 +12144,19 @@
         <v>142679</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>122355</v>
+        <v>122099</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>167706</v>
+        <v>166144</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1727005206030695</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1481000816994572</v>
+        <v>0.1477891595251986</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2029929414439961</v>
+        <v>0.2011020624728806</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>314</v>
@@ -12165,19 +12165,19 @@
         <v>322586</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>291351</v>
+        <v>292355</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>354342</v>
+        <v>358655</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2011278420284895</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1816537134671108</v>
+        <v>0.1822796156962122</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2209276108812624</v>
+        <v>0.2236165044587105</v>
       </c>
     </row>
     <row r="49">
@@ -12194,19 +12194,19 @@
         <v>66984</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>52925</v>
+        <v>51638</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>84365</v>
+        <v>83169</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.08612972546406648</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.06805220243449238</v>
+        <v>0.06639745486201978</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1084775763752061</v>
+        <v>0.1069405602374248</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>99</v>
@@ -12215,19 +12215,19 @@
         <v>106110</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>86826</v>
+        <v>86907</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>126711</v>
+        <v>126993</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1284368318030934</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1050949540021427</v>
+        <v>0.1051934209996936</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1533719209927807</v>
+        <v>0.1537129455823841</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>162</v>
@@ -12236,19 +12236,19 @@
         <v>173095</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>148376</v>
+        <v>149055</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>201430</v>
+        <v>202194</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.107922293006026</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.09251024973076688</v>
+        <v>0.09293368566533328</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1255887147837097</v>
+        <v>0.1260653759032526</v>
       </c>
     </row>
     <row r="50">
@@ -12265,19 +12265,19 @@
         <v>97074</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>79866</v>
+        <v>81112</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>117679</v>
+        <v>116501</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1248197622706201</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1026931192896376</v>
+        <v>0.1042945621625458</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1513141065782847</v>
+        <v>0.1497990369281846</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>128</v>
@@ -12286,19 +12286,19 @@
         <v>146958</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>125305</v>
+        <v>125618</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>169254</v>
+        <v>171529</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1778797458796365</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1516704198026842</v>
+        <v>0.1520494867307815</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2048668812774242</v>
+        <v>0.2076197529290571</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>224</v>
@@ -12307,19 +12307,19 @@
         <v>244033</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>214234</v>
+        <v>214031</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>276445</v>
+        <v>275071</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.152151181898062</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1335723925677538</v>
+        <v>0.1334456622375225</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1723595983702023</v>
+        <v>0.1715033513005303</v>
       </c>
     </row>
     <row r="51">
@@ -12411,19 +12411,19 @@
         <v>827746</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>773566</v>
+        <v>777758</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>878826</v>
+        <v>879721</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.2448896101748455</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.2288602954374765</v>
+        <v>0.2301005055685395</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2600014628562927</v>
+        <v>0.2602664292117862</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>773</v>
@@ -12432,19 +12432,19 @@
         <v>836508</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>783924</v>
+        <v>786625</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>888616</v>
+        <v>893485</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.2368337832902307</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.2219461595392566</v>
+        <v>0.2227108929235471</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2515868370400283</v>
+        <v>0.2529652871604153</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>1551</v>
@@ -12453,19 +12453,19 @@
         <v>1664254</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>1599917</v>
+        <v>1594794</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>1738852</v>
+        <v>1739256</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.240773141247316</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.2314652532013382</v>
+        <v>0.2307240929232033</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.2515654084242414</v>
+        <v>0.2516238527418382</v>
       </c>
     </row>
     <row r="53">
@@ -12482,19 +12482,19 @@
         <v>1099168</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1042433</v>
+        <v>1044079</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1157133</v>
+        <v>1158794</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.3251899424854646</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.3084049137453907</v>
+        <v>0.3088917377871964</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.3423390375765948</v>
+        <v>0.3428302598402806</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>1009</v>
@@ -12503,19 +12503,19 @@
         <v>1064999</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>1010885</v>
+        <v>1012136</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>1125201</v>
+        <v>1118257</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.3015245537309994</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.2862038461891314</v>
+        <v>0.2865581214760406</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.3185691165014534</v>
+        <v>0.3166030439768813</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>2059</v>
@@ -12524,19 +12524,19 @@
         <v>2164167</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>2088095</v>
+        <v>2083005</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>2242658</v>
+        <v>2245201</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.3130971010104681</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.3020915528226418</v>
+        <v>0.3013551233139621</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.3244526379076623</v>
+        <v>0.3248205677086388</v>
       </c>
     </row>
     <row r="54">
@@ -12553,19 +12553,19 @@
         <v>771951</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>727069</v>
+        <v>722987</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>817697</v>
+        <v>823358</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2283823766680283</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2151040937185178</v>
+        <v>0.2138964972420921</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2419164034631486</v>
+        <v>0.2435912234292945</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>688</v>
@@ -12574,19 +12574,19 @@
         <v>701839</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>657367</v>
+        <v>655039</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>751521</v>
+        <v>748532</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1987060213038796</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1861150146952146</v>
+        <v>0.1854559146094205</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2127722274824492</v>
+        <v>0.2119257768952005</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1426</v>
@@ -12595,19 +12595,19 @@
         <v>1473790</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1403470</v>
+        <v>1408609</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1542384</v>
+        <v>1546699</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2132179749885248</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.203044585050355</v>
+        <v>0.2037881011623495</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2231417080903532</v>
+        <v>0.2237660079612778</v>
       </c>
     </row>
     <row r="55">
@@ -12624,19 +12624,19 @@
         <v>189007</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>162652</v>
+        <v>160421</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>218832</v>
+        <v>217095</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.05591799243909092</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.04812063662334719</v>
+        <v>0.04746065426071819</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.06474159315213794</v>
+        <v>0.06422770181357999</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>213</v>
@@ -12645,19 +12645,19 @@
         <v>226186</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>200006</v>
+        <v>197824</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>259775</v>
+        <v>256475</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.06403809643152156</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.05662618697555713</v>
+        <v>0.05600830743003543</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.07354801316418914</v>
+        <v>0.07261374388111821</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>393</v>
@@ -12666,19 +12666,19 @@
         <v>415193</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>373439</v>
+        <v>378604</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>453941</v>
+        <v>456271</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.0600673065010635</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.05402664036411392</v>
+        <v>0.05477383261369601</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.06567316186433106</v>
+        <v>0.06601028364960813</v>
       </c>
     </row>
     <row r="56">
@@ -12695,19 +12695,19 @@
         <v>492208</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>454306</v>
+        <v>451400</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>537243</v>
+        <v>535329</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1456200782325707</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1344069573517311</v>
+        <v>0.1335471780678536</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1589439555127739</v>
+        <v>0.158377567052046</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>644</v>
@@ -12716,19 +12716,19 @@
         <v>702515</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>652718</v>
+        <v>654432</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>750596</v>
+        <v>748654</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.1988975452433687</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1847989192356581</v>
+        <v>0.1852840204911865</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2125101732815007</v>
+        <v>0.2119603747334969</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1115</v>
@@ -12737,19 +12737,19 @@
         <v>1194723</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1132403</v>
+        <v>1126909</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1256099</v>
+        <v>1255533</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1728444762526276</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1638284883997823</v>
+        <v>0.1630336169183305</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1817239138775853</v>
+        <v>0.1816420364802077</v>
       </c>
     </row>
     <row r="57">
